--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2724816.809850895</v>
+        <v>-2726599.715710758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918218</v>
+        <v>6028847.321918221</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16284703.67104389</v>
+        <v>16284703.67104388</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.46543892500146</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
-        <v>285.7041579667251</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374289</v>
+        <v>122.3126000412121</v>
       </c>
       <c r="G11" t="n">
-        <v>332.9594913636452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.94276850040933</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.6692048517711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>86.96444984558481</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403324</v>
+        <v>133.1742870137163</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.07634665111844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.50047858910138</v>
+        <v>65.50047858910135</v>
       </c>
       <c r="G12" t="n">
-        <v>56.29028837994824</v>
+        <v>56.29028837994821</v>
       </c>
       <c r="H12" t="n">
-        <v>18.32961418785551</v>
+        <v>18.32961418785548</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>144.1093279635753</v>
+        <v>64.54059415929281</v>
       </c>
       <c r="T12" t="n">
         <v>114.6124383743877</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8437179376209</v>
+        <v>146.2749841333384</v>
       </c>
       <c r="V12" t="n">
-        <v>153.2318533451428</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
-        <v>172.1262493566371</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>126.204251399195</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.4342149655585</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>100.2632463776548</v>
       </c>
       <c r="C13" t="n">
-        <v>87.67808729434533</v>
+        <v>87.6780872943453</v>
       </c>
       <c r="D13" t="n">
-        <v>69.04673921392985</v>
+        <v>69.04673921392983</v>
       </c>
       <c r="E13" t="n">
-        <v>66.86522884228667</v>
+        <v>66.86522884228664</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85231421864874</v>
+        <v>65.85231421864871</v>
       </c>
       <c r="G13" t="n">
-        <v>87.17769483121785</v>
+        <v>87.17769483121782</v>
       </c>
       <c r="H13" t="n">
-        <v>71.59325136630866</v>
+        <v>71.59325136630864</v>
       </c>
       <c r="I13" t="n">
-        <v>38.45470665437198</v>
+        <v>38.45470665437193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76513142968433</v>
+        <v>41.76513142968429</v>
       </c>
       <c r="S13" t="n">
         <v>122.7587393607691</v>
       </c>
       <c r="T13" t="n">
-        <v>143.0592298077222</v>
+        <v>143.0592298077221</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673198</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V13" t="n">
         <v>172.5689095195455</v>
@@ -1591,10 +1591,10 @@
         <v>206.9542645323085</v>
       </c>
       <c r="X13" t="n">
-        <v>146.1409215847547</v>
+        <v>146.1409215847546</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478122</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.704157966725</v>
+        <v>245.5563119462865</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
         <v>302.3616362679792</v>
@@ -1619,13 +1619,13 @@
         <v>327.3073119374289</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9594913636451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.94276850040934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.22713566997376</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U14" t="n">
-        <v>9.906206230762479</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W14" t="n">
         <v>269.6722349131305</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1623668741865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>306.669204851771</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8590221842308</v>
+        <v>56.29028837994821</v>
       </c>
       <c r="H15" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285294</v>
+        <v>16.24364487205645</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>144.1093279635753</v>
       </c>
       <c r="T15" t="n">
-        <v>172.1390858878733</v>
+        <v>194.1811721786702</v>
       </c>
       <c r="U15" t="n">
         <v>225.8437179376209</v>
       </c>
       <c r="V15" t="n">
-        <v>153.2318533451427</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>38.38662754847593</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U17" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149487</v>
       </c>
       <c r="V17" t="n">
-        <v>168.6147908615698</v>
+        <v>155.1884642543803</v>
       </c>
       <c r="W17" t="n">
         <v>190.103501108848</v>
@@ -1910,7 +1910,7 @@
         <v>210.593633069904</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>141.3567402904424</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S18" t="n">
         <v>144.1093279635753</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>104.1621651083986</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.69451257337224</v>
+        <v>97.15238312330595</v>
       </c>
       <c r="C19" t="n">
-        <v>8.109353490062773</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.608961026935289</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648655</v>
+        <v>43.19000555648658</v>
       </c>
       <c r="T19" t="n">
         <v>222.6279636120047</v>
       </c>
       <c r="U19" t="n">
-        <v>180.3460481606222</v>
+        <v>127.1136771630372</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X19" t="n">
-        <v>66.57218778047209</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>253.3907575593626</v>
       </c>
       <c r="H20" t="n">
-        <v>151.9228599313641</v>
+        <v>138.4965333241747</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566582</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U20" t="n">
-        <v>78.5598977043054</v>
+        <v>91.98622431149487</v>
       </c>
       <c r="V20" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W20" t="n">
         <v>190.103501108848</v>
@@ -2147,7 +2147,7 @@
         <v>210.593633069904</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>43.45839229830443</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8590221842308</v>
@@ -2178,7 +2178,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S21" t="n">
         <v>144.1093279635753</v>
@@ -2214,7 +2214,7 @@
         <v>194.1811721786702</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8437179376209</v>
+        <v>124.2328978425421</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.109353490062773</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.608961026935289</v>
+        <v>7.608961026935317</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1619851705912</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.42237655407196</v>
+        <v>43.19000555648658</v>
       </c>
       <c r="T22" t="n">
-        <v>63.4904960034396</v>
+        <v>63.49049600343962</v>
       </c>
       <c r="U22" t="n">
         <v>127.1136771630372</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>93.00017571526297</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44718574352973</v>
+        <v>115.2855951755756</v>
       </c>
     </row>
     <row r="23">
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>51.81295415566582</v>
+        <v>51.81295415566585</v>
       </c>
       <c r="U23" t="n">
-        <v>91.98622431149484</v>
+        <v>91.98622431149487</v>
       </c>
       <c r="V23" t="n">
-        <v>168.6147908615698</v>
+        <v>168.6147908615699</v>
       </c>
       <c r="W23" t="n">
         <v>190.103501108848</v>
@@ -2384,7 +2384,7 @@
         <v>210.593633069904</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.1004710474885</v>
+        <v>227.1004710474886</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>59.26057207674894</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2415,7 +2415,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.988926598084433</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>144.1093279635753</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>171.4994162711146</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.69451257337224</v>
+        <v>20.69451257337226</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062773</v>
+        <v>8.109353490062801</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7464286355003</v>
+        <v>68.17539298300326</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648655</v>
+        <v>43.19000555648658</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8754175878643</v>
+        <v>63.49049600343962</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1136771630372</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3855307280259</v>
+        <v>127.385530728026</v>
       </c>
       <c r="X25" t="n">
-        <v>66.57218778047209</v>
+        <v>66.57218778047212</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.44718574352973</v>
+        <v>59.44718574352976</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.165107859198</v>
+        <v>303.1651078591981</v>
       </c>
       <c r="C26" t="n">
         <v>285.704157966725</v>
       </c>
       <c r="D26" t="n">
-        <v>275.1143078164004</v>
+        <v>275.1143078164005</v>
       </c>
       <c r="E26" t="n">
-        <v>302.3616362679792</v>
+        <v>302.3616362679793</v>
       </c>
       <c r="F26" t="n">
-        <v>327.3073119374288</v>
+        <v>327.3073119374289</v>
       </c>
       <c r="G26" t="n">
-        <v>332.959491363645</v>
+        <v>332.9594913636452</v>
       </c>
       <c r="H26" t="n">
-        <v>231.4915937356466</v>
+        <v>231.4915937356467</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040931</v>
+        <v>23.94276850040936</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.22713566997371</v>
+        <v>66.22713566997375</v>
       </c>
       <c r="T26" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U26" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V26" t="n">
-        <v>248.1835246658523</v>
+        <v>248.1835246658524</v>
       </c>
       <c r="W26" t="n">
-        <v>269.6722349131304</v>
+        <v>269.6722349131305</v>
       </c>
       <c r="X26" t="n">
-        <v>290.1623668741864</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y26" t="n">
         <v>306.669204851771</v>
@@ -2652,7 +2652,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S27" t="n">
         <v>144.1093279635753</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.2632463776547</v>
+        <v>100.2632463776548</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434526</v>
+        <v>87.67808729434532</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392978</v>
+        <v>69.04673921392984</v>
       </c>
       <c r="E28" t="n">
-        <v>66.8652288422866</v>
+        <v>66.86522884228665</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864867</v>
+        <v>65.85231421864873</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121783</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630865</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968426</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S28" t="n">
         <v>122.7587393607691</v>
@@ -2770,16 +2770,16 @@
         <v>206.6824109673197</v>
       </c>
       <c r="V28" t="n">
-        <v>172.5689095195454</v>
+        <v>172.5689095195455</v>
       </c>
       <c r="W28" t="n">
-        <v>206.9542645323084</v>
+        <v>206.9542645323085</v>
       </c>
       <c r="X28" t="n">
         <v>146.1409215847546</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.0159195478122</v>
+        <v>139.0159195478123</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>303.1651078591981</v>
       </c>
       <c r="C29" t="n">
-        <v>285.704157966725</v>
+        <v>285.7041579667251</v>
       </c>
       <c r="D29" t="n">
         <v>275.1143078164005</v>
@@ -2801,7 +2801,7 @@
         <v>302.3616362679793</v>
       </c>
       <c r="F29" t="n">
-        <v>327.3073119374289</v>
+        <v>327.307311937429</v>
       </c>
       <c r="G29" t="n">
         <v>332.9594913636452</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356467</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040937</v>
+        <v>23.94276850040943</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997376</v>
+        <v>66.2271356699738</v>
       </c>
       <c r="T29" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599485</v>
       </c>
       <c r="U29" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157775</v>
       </c>
       <c r="V29" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658525</v>
       </c>
       <c r="W29" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131306</v>
       </c>
       <c r="X29" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741866</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.669204851771</v>
+        <v>306.6692048517712</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S30" t="n">
         <v>144.1093279635753</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776549</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434532</v>
+        <v>87.67808729434539</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392984</v>
+        <v>69.04673921392991</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228665</v>
+        <v>66.86522884228673</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864873</v>
+        <v>65.85231421864724</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121782</v>
+        <v>87.17769483121791</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630872</v>
       </c>
       <c r="I31" t="n">
-        <v>38.45470665437196</v>
+        <v>38.45470665437202</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968432</v>
+        <v>41.76513142968437</v>
       </c>
       <c r="S31" t="n">
-        <v>122.7587393607691</v>
+        <v>122.7587393607692</v>
       </c>
       <c r="T31" t="n">
-        <v>143.0592298077221</v>
+        <v>143.0592298077222</v>
       </c>
       <c r="U31" t="n">
-        <v>206.6824109673197</v>
+        <v>206.6824109673198</v>
       </c>
       <c r="V31" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195456</v>
       </c>
       <c r="W31" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323086</v>
       </c>
       <c r="X31" t="n">
-        <v>146.1409215847546</v>
+        <v>146.1409215847547</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478124</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>302.3616362679793</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3073119374289</v>
+        <v>327.307311937429</v>
       </c>
       <c r="G32" t="n">
         <v>332.9594913636452</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356467</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040939</v>
+        <v>23.94276850040943</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.22713566997378</v>
+        <v>66.22713566997383</v>
       </c>
       <c r="T32" t="n">
-        <v>131.3816879599484</v>
+        <v>131.3816879599485</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5549581157774</v>
+        <v>171.5549581157775</v>
       </c>
       <c r="V32" t="n">
-        <v>248.1835246658524</v>
+        <v>248.1835246658525</v>
       </c>
       <c r="W32" t="n">
-        <v>269.6722349131305</v>
+        <v>269.6722349131306</v>
       </c>
       <c r="X32" t="n">
-        <v>290.1623668741865</v>
+        <v>290.1623668741866</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.6692048517711</v>
+        <v>306.6692048517712</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S33" t="n">
         <v>144.1093279635753</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776549</v>
       </c>
       <c r="C34" t="n">
-        <v>87.67808729434533</v>
+        <v>87.67808729434539</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392985</v>
+        <v>69.04673921392991</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228667</v>
+        <v>66.86522884228673</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864874</v>
+        <v>65.8523142186488</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121785</v>
+        <v>87.17769483121791</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630866</v>
+        <v>71.59325136630872</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437197</v>
+        <v>38.45470665437202</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968433</v>
+        <v>41.76513142968437</v>
       </c>
       <c r="S34" t="n">
-        <v>122.7587393607691</v>
+        <v>122.7587393607692</v>
       </c>
       <c r="T34" t="n">
         <v>143.0592298077222</v>
@@ -3244,16 +3244,16 @@
         <v>206.6824109673198</v>
       </c>
       <c r="V34" t="n">
-        <v>172.5689095195455</v>
+        <v>172.5689095195456</v>
       </c>
       <c r="W34" t="n">
-        <v>206.9542645323085</v>
+        <v>206.9542645323086</v>
       </c>
       <c r="X34" t="n">
         <v>146.1409215847547</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.0159195478123</v>
+        <v>139.0159195478124</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S36" t="n">
         <v>144.1093279635753</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7464286355003</v>
+        <v>145.5362292959225</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334885</v>
+        <v>5.366115696334884</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>106.3417738495717</v>
       </c>
       <c r="W37" t="n">
-        <v>237.5403699814111</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X37" t="n">
         <v>79.91378591478087</v>
@@ -3600,7 +3600,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S39" t="n">
         <v>144.1093279635753</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C40" t="n">
         <v>21.45095162437156</v>
@@ -3667,16 +3667,16 @@
         <v>2.819603543956077</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6380931723128924</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.2752453593655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124407</v>
+        <v>118.1386217316455</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334885</v>
+        <v>5.366115696334884</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>56.53160369079534</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997465</v>
+        <v>65.1545522899746</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458037</v>
+        <v>105.3278224458036</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9563889958787</v>
+        <v>181.9563889958786</v>
       </c>
       <c r="W41" t="n">
-        <v>203.4450992431568</v>
+        <v>203.4450992431567</v>
       </c>
       <c r="X41" t="n">
         <v>223.9352312042128</v>
@@ -3837,7 +3837,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635753</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768105</v>
+        <v>34.03611070768102</v>
       </c>
       <c r="C43" t="n">
-        <v>21.45095162437158</v>
+        <v>21.45095162437156</v>
       </c>
       <c r="D43" t="n">
-        <v>99.6328446630322</v>
+        <v>2.819603543956077</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6380931723128924</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.9505591612441</v>
+        <v>20.95055916124407</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1619851705912</v>
+        <v>5.366115696334884</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S43" t="n">
-        <v>56.53160369079536</v>
+        <v>56.53160369079534</v>
       </c>
       <c r="T43" t="n">
-        <v>76.8320941377484</v>
+        <v>76.83209413774837</v>
       </c>
       <c r="U43" t="n">
         <v>140.455275297346</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3417738495718</v>
+        <v>227.6170192089376</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623348</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.9137859147809</v>
+        <v>79.91378591478087</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.78878387783854</v>
+        <v>72.78878387783851</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9379721892243</v>
+        <v>236.9379721892242</v>
       </c>
       <c r="C44" t="n">
         <v>219.4770222967512</v>
@@ -3983,16 +3983,16 @@
         <v>208.8871721464266</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1345005980055</v>
+        <v>236.1345005980054</v>
       </c>
       <c r="F44" t="n">
-        <v>261.0801762674552</v>
+        <v>261.0801762674551</v>
       </c>
       <c r="G44" t="n">
-        <v>266.7323556936714</v>
+        <v>266.7323556936713</v>
       </c>
       <c r="H44" t="n">
-        <v>165.2644580656729</v>
+        <v>165.2644580656728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.15455228997457</v>
+        <v>65.15455228997455</v>
       </c>
       <c r="U44" t="n">
         <v>105.3278224458036</v>
@@ -4074,7 +4074,7 @@
         <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285294</v>
+        <v>38.28573116285293</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635753</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768099</v>
+        <v>34.03611070768096</v>
       </c>
       <c r="C46" t="n">
-        <v>21.45095162437153</v>
+        <v>21.4509516243715</v>
       </c>
       <c r="D46" t="n">
-        <v>2.819603543956049</v>
+        <v>2.819603543956021</v>
       </c>
       <c r="E46" t="n">
-        <v>0.638093172312864</v>
+        <v>0.6380931723128356</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95055916124404</v>
+        <v>166.7464286355003</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334857</v>
+        <v>5.366115696334827</v>
       </c>
       <c r="I46" t="n">
-        <v>96.81324111907651</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079531</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T46" t="n">
-        <v>76.83209413774834</v>
+        <v>173.6453352568254</v>
       </c>
       <c r="U46" t="n">
         <v>140.4552752973459</v>
@@ -4195,13 +4195,13 @@
         <v>106.3417738495717</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>79.91378591478085</v>
+        <v>79.91378591478082</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>991.9285487048206</v>
+        <v>750.6183194694144</v>
       </c>
       <c r="C11" t="n">
-        <v>703.3384901525731</v>
+        <v>462.0282609171668</v>
       </c>
       <c r="D11" t="n">
-        <v>703.3384901525731</v>
+        <v>184.1350206985809</v>
       </c>
       <c r="E11" t="n">
-        <v>703.3384901525731</v>
+        <v>184.1350206985809</v>
       </c>
       <c r="F11" t="n">
-        <v>372.7250437511296</v>
+        <v>60.58693984887168</v>
       </c>
       <c r="G11" t="n">
-        <v>36.402325201993</v>
+        <v>60.58693984887168</v>
       </c>
       <c r="H11" t="n">
-        <v>36.402325201993</v>
+        <v>60.58693984887168</v>
       </c>
       <c r="I11" t="n">
-        <v>36.402325201993</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J11" t="n">
-        <v>257.7009633964344</v>
+        <v>90.29531437608131</v>
       </c>
       <c r="K11" t="n">
-        <v>437.7128812543707</v>
+        <v>221.8054530777754</v>
       </c>
       <c r="L11" t="n">
-        <v>637.7645990936987</v>
+        <v>421.8571709171035</v>
       </c>
       <c r="M11" t="n">
-        <v>892.0301184734175</v>
+        <v>872.3359452917666</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.508892848081</v>
+        <v>1135.329554980299</v>
       </c>
       <c r="O11" t="n">
-        <v>1577.51103960875</v>
+        <v>1370.331701740967</v>
       </c>
       <c r="P11" t="n">
-        <v>1743.578934043205</v>
+        <v>1719.407744186977</v>
       </c>
       <c r="Q11" t="n">
-        <v>1820.11626009965</v>
+        <v>1795.945070243422</v>
       </c>
       <c r="R11" t="n">
-        <v>1820.11626009965</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="S11" t="n">
-        <v>1753.220163463313</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1620.511387746193</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="U11" t="n">
-        <v>1620.511387746193</v>
+        <v>1579.932326982728</v>
       </c>
       <c r="V11" t="n">
-        <v>1620.511387746193</v>
+        <v>1329.241898027322</v>
       </c>
       <c r="W11" t="n">
-        <v>1620.511387746193</v>
+        <v>1056.845701145372</v>
       </c>
       <c r="X11" t="n">
-        <v>1327.418087873277</v>
+        <v>1056.845701145372</v>
       </c>
       <c r="Y11" t="n">
-        <v>1017.65121428563</v>
+        <v>1056.845701145372</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.8180409158269</v>
+        <v>659.3018659631182</v>
       </c>
       <c r="C12" t="n">
-        <v>405.737470022864</v>
+        <v>524.7823841310815</v>
       </c>
       <c r="D12" t="n">
-        <v>256.8030603616128</v>
+        <v>375.8479744698303</v>
       </c>
       <c r="E12" t="n">
-        <v>177.9380637443214</v>
+        <v>216.6105194643748</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7759641593705</v>
+        <v>150.4484198794239</v>
       </c>
       <c r="G12" t="n">
-        <v>54.91708700790766</v>
+        <v>93.58954272796107</v>
       </c>
       <c r="H12" t="n">
-        <v>36.402325201993</v>
+        <v>75.07478092204644</v>
       </c>
       <c r="I12" t="n">
-        <v>36.402325201993</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J12" t="n">
-        <v>49.68277339315015</v>
+        <v>174.5128983801549</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5359993554283</v>
+        <v>275.3661243424331</v>
       </c>
       <c r="L12" t="n">
-        <v>332.4681488779829</v>
+        <v>457.2982738649878</v>
       </c>
       <c r="M12" t="n">
-        <v>782.9469232526463</v>
+        <v>688.9613793449606</v>
       </c>
       <c r="N12" t="n">
-        <v>1035.150106715337</v>
+        <v>1112.123059232324</v>
       </c>
       <c r="O12" t="n">
-        <v>1415.11813062639</v>
+        <v>1320.619905010724</v>
       </c>
       <c r="P12" t="n">
-        <v>1563.122164526897</v>
+        <v>1771.098679385387</v>
       </c>
       <c r="Q12" t="n">
-        <v>1820.11626009965</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="R12" t="n">
-        <v>1820.11626009965</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="S12" t="n">
-        <v>1674.551282358665</v>
+        <v>1754.923740746828</v>
       </c>
       <c r="T12" t="n">
-        <v>1558.781142586556</v>
+        <v>1639.153600974719</v>
       </c>
       <c r="U12" t="n">
-        <v>1330.656174972798</v>
+        <v>1491.401091749125</v>
       </c>
       <c r="V12" t="n">
-        <v>1175.876525129219</v>
+        <v>1336.621441905546</v>
       </c>
       <c r="W12" t="n">
-        <v>1002.011626789181</v>
+        <v>1082.384085177345</v>
       </c>
       <c r="X12" t="n">
-        <v>874.5325849718128</v>
+        <v>954.9050433599759</v>
       </c>
       <c r="Y12" t="n">
-        <v>668.033377935895</v>
+        <v>747.1447445950221</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334167</v>
+        <v>527.9861862334155</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936739</v>
+        <v>439.4224616936729</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695023</v>
+        <v>369.6782806695013</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752733</v>
+        <v>302.1376454752724</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655271</v>
+        <v>235.6201563655262</v>
       </c>
       <c r="G13" t="n">
-        <v>147.561878758236</v>
+        <v>147.5618787582355</v>
       </c>
       <c r="H13" t="n">
-        <v>75.24546323671217</v>
+        <v>75.24546323671211</v>
       </c>
       <c r="I13" t="n">
-        <v>36.402325201993</v>
+        <v>36.40232520199298</v>
       </c>
       <c r="J13" t="n">
         <v>109.8596221047546</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7340958180465</v>
+        <v>309.7340958180455</v>
       </c>
       <c r="L13" t="n">
-        <v>599.0017100013556</v>
+        <v>599.0017100013547</v>
       </c>
       <c r="M13" t="n">
-        <v>910.1008877035641</v>
+        <v>910.1008877035633</v>
       </c>
       <c r="N13" t="n">
         <v>1221.11048570127</v>
       </c>
       <c r="O13" t="n">
-        <v>1498.375280567426</v>
+        <v>1498.375280567425</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.471626070059</v>
+        <v>1723.471626070057</v>
       </c>
       <c r="Q13" t="n">
-        <v>1820.11626009965</v>
+        <v>1820.116260099649</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.929258655524</v>
+        <v>1777.929258655523</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.930532028485</v>
+        <v>1653.930532028483</v>
       </c>
       <c r="T13" t="n">
-        <v>1509.426259495432</v>
+        <v>1509.426259495431</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.65614740723</v>
+        <v>1300.656147407229</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.344117589508</v>
+        <v>1126.344117589507</v>
       </c>
       <c r="W13" t="n">
-        <v>917.2994059407113</v>
+        <v>917.2994059407101</v>
       </c>
       <c r="X13" t="n">
-        <v>769.6823134308581</v>
+        <v>769.682313430857</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754922</v>
+        <v>629.2621926754911</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.991651154771</v>
+        <v>1470.023300314744</v>
       </c>
       <c r="C14" t="n">
-        <v>1022.401592602524</v>
+        <v>1221.986621581121</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.401592602524</v>
+        <v>944.093381362535</v>
       </c>
       <c r="E14" t="n">
-        <v>716.9857983924439</v>
+        <v>638.6775871524549</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3723519910006</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="G14" t="n">
-        <v>50.04963344186408</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="H14" t="n">
-        <v>50.04963344186408</v>
+        <v>74.23424808874222</v>
       </c>
       <c r="I14" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J14" t="n">
-        <v>103.9426226159524</v>
+        <v>271.3482716363054</v>
       </c>
       <c r="K14" t="n">
-        <v>235.4527613176464</v>
+        <v>402.8584103379994</v>
       </c>
       <c r="L14" t="n">
-        <v>848.9890815619203</v>
+        <v>602.9101281773275</v>
       </c>
       <c r="M14" t="n">
-        <v>1468.353295404988</v>
+        <v>857.1756475570462</v>
       </c>
       <c r="N14" t="n">
-        <v>1731.34690509352</v>
+        <v>1120.169257245578</v>
       </c>
       <c r="O14" t="n">
-        <v>1966.349051854189</v>
+        <v>1731.10388975923</v>
       </c>
       <c r="P14" t="n">
-        <v>2425.944346036759</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q14" t="n">
         <v>2502.481672093204</v>
@@ -5303,25 +5303,25 @@
         <v>2502.481672093204</v>
       </c>
       <c r="S14" t="n">
-        <v>2502.481672093204</v>
+        <v>2435.585575456867</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.481672093204</v>
+        <v>2302.876799739748</v>
       </c>
       <c r="U14" t="n">
-        <v>2492.475403173242</v>
+        <v>2302.876799739748</v>
       </c>
       <c r="V14" t="n">
-        <v>2492.475403173242</v>
+        <v>2052.186370784341</v>
       </c>
       <c r="W14" t="n">
-        <v>2220.079206291292</v>
+        <v>1779.790173902391</v>
       </c>
       <c r="X14" t="n">
-        <v>1926.985906418376</v>
+        <v>1779.790173902391</v>
       </c>
       <c r="Y14" t="n">
-        <v>1617.219032830729</v>
+        <v>1470.023300314744</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>954.0000968165722</v>
+        <v>851.3629048013408</v>
       </c>
       <c r="C15" t="n">
-        <v>779.5470675354452</v>
+        <v>676.9098755202139</v>
       </c>
       <c r="D15" t="n">
-        <v>630.6126578741939</v>
+        <v>527.9754658589626</v>
       </c>
       <c r="E15" t="n">
-        <v>471.3752028687384</v>
+        <v>368.7380108535071</v>
       </c>
       <c r="F15" t="n">
-        <v>324.8406448956234</v>
+        <v>222.2034528803921</v>
       </c>
       <c r="G15" t="n">
-        <v>187.6093093559963</v>
+        <v>165.3445757289292</v>
       </c>
       <c r="H15" t="n">
-        <v>88.72208916191755</v>
+        <v>66.45735553485041</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J15" t="n">
         <v>188.160206620026</v>
@@ -5361,46 +5361,46 @@
         <v>550.834017224757</v>
       </c>
       <c r="L15" t="n">
-        <v>907.8950857198713</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M15" t="n">
-        <v>1139.558191199844</v>
+        <v>1331.561214077709</v>
       </c>
       <c r="N15" t="n">
-        <v>1391.761374662535</v>
+        <v>1583.764397540399</v>
       </c>
       <c r="O15" t="n">
-        <v>1990.181916524896</v>
+        <v>2182.184939402761</v>
       </c>
       <c r="P15" t="n">
-        <v>2453.464091378942</v>
+        <v>2453.464091378943</v>
       </c>
       <c r="Q15" t="n">
         <v>2502.481672093204</v>
       </c>
       <c r="R15" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S15" t="n">
         <v>2348.847071525871</v>
       </c>
       <c r="T15" t="n">
-        <v>2174.969206992665</v>
+        <v>2152.704473365598</v>
       </c>
       <c r="U15" t="n">
-        <v>1946.844239378907</v>
+        <v>1924.57950575184</v>
       </c>
       <c r="V15" t="n">
-        <v>1792.064589535328</v>
+        <v>1689.427397520097</v>
       </c>
       <c r="W15" t="n">
-        <v>1537.827232807127</v>
+        <v>1435.190040791896</v>
       </c>
       <c r="X15" t="n">
-        <v>1329.975732601594</v>
+        <v>1227.338540586363</v>
       </c>
       <c r="Y15" t="n">
-        <v>1122.21543383664</v>
+        <v>1019.578241821409</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.6334944732871</v>
+        <v>541.6334944732866</v>
       </c>
       <c r="C16" t="n">
-        <v>453.0697699335444</v>
+        <v>453.069769933544</v>
       </c>
       <c r="D16" t="n">
-        <v>383.3255889093729</v>
+        <v>383.3255889093724</v>
       </c>
       <c r="E16" t="n">
-        <v>315.784953715144</v>
+        <v>315.7849537151435</v>
       </c>
       <c r="F16" t="n">
-        <v>249.2674646053978</v>
+        <v>249.2674646053974</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2091869981071</v>
+        <v>161.2091869981069</v>
       </c>
       <c r="H16" t="n">
-        <v>88.89277147658321</v>
+        <v>88.89277147658299</v>
       </c>
       <c r="I16" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J16" t="n">
         <v>123.5069303446257</v>
       </c>
       <c r="K16" t="n">
-        <v>323.3814040579176</v>
+        <v>323.3814040579175</v>
       </c>
       <c r="L16" t="n">
-        <v>612.6490182412268</v>
+        <v>612.6490182412267</v>
       </c>
       <c r="M16" t="n">
-        <v>923.7481959434351</v>
+        <v>923.7481959434353</v>
       </c>
       <c r="N16" t="n">
-        <v>1234.757793941141</v>
+        <v>1234.757793941142</v>
       </c>
       <c r="O16" t="n">
         <v>1512.022588807297</v>
@@ -5455,7 +5455,7 @@
         <v>1737.118934309929</v>
       </c>
       <c r="Q16" t="n">
-        <v>1833.76356833952</v>
+        <v>1833.763568339521</v>
       </c>
       <c r="R16" t="n">
         <v>1791.576566895395</v>
@@ -5473,13 +5473,13 @@
         <v>1139.991425829378</v>
       </c>
       <c r="W16" t="n">
-        <v>930.9467141805819</v>
+        <v>930.9467141805814</v>
       </c>
       <c r="X16" t="n">
-        <v>783.3296216707286</v>
+        <v>783.3296216707281</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.9095009153626</v>
+        <v>642.9095009153622</v>
       </c>
     </row>
     <row r="17">
@@ -5501,37 +5501,37 @@
         <v>709.6983158902208</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G17" t="n">
-        <v>203.5070677159692</v>
+        <v>203.5070677159693</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I17" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3482716363054</v>
+        <v>103.9426226159524</v>
       </c>
       <c r="K17" t="n">
-        <v>402.8584103379994</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L17" t="n">
-        <v>832.6638505290802</v>
+        <v>435.5044791569746</v>
       </c>
       <c r="M17" t="n">
-        <v>1086.929369908799</v>
+        <v>1054.868693000043</v>
       </c>
       <c r="N17" t="n">
-        <v>1706.293583751867</v>
+        <v>1317.862302688575</v>
       </c>
       <c r="O17" t="n">
-        <v>1941.295730512536</v>
+        <v>1731.10388975923</v>
       </c>
       <c r="P17" t="n">
-        <v>2425.944346036759</v>
+        <v>2215.752505283454</v>
       </c>
       <c r="Q17" t="n">
         <v>2502.481672093204</v>
@@ -5543,10 +5543,10 @@
         <v>2502.481672093204</v>
       </c>
       <c r="T17" t="n">
-        <v>2463.707300832117</v>
+        <v>2450.145354764249</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.791922739698</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V17" t="n">
         <v>2200.473952172456</v>
@@ -5558,7 +5558,7 @@
         <v>1795.729372193919</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.334956994435</v>
+        <v>1566.334956994436</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.3629048013404</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C18" t="n">
-        <v>676.9098755202134</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D18" t="n">
-        <v>527.9754658589621</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E18" t="n">
-        <v>368.7380108535066</v>
+        <v>471.3752028687384</v>
       </c>
       <c r="F18" t="n">
-        <v>225.9534247015446</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G18" t="n">
-        <v>88.72208916191755</v>
+        <v>187.6093093559963</v>
       </c>
       <c r="H18" t="n">
         <v>88.72208916191755</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J18" t="n">
-        <v>157.5351984549627</v>
+        <v>188.160206620026</v>
       </c>
       <c r="K18" t="n">
-        <v>520.2090090596936</v>
+        <v>550.834017224757</v>
       </c>
       <c r="L18" t="n">
-        <v>702.1411585822482</v>
+        <v>1099.898108597736</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.505372425316</v>
+        <v>1636.783513378854</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.708555888007</v>
+        <v>1888.986696841545</v>
       </c>
       <c r="O18" t="n">
-        <v>1782.205401666406</v>
+        <v>2097.483542619944</v>
       </c>
       <c r="P18" t="n">
         <v>2245.487576520452</v>
@@ -5616,7 +5616,7 @@
         <v>2502.481672093204</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S18" t="n">
         <v>2348.847071525871</v>
@@ -5625,19 +5625,19 @@
         <v>2152.704473365598</v>
       </c>
       <c r="U18" t="n">
-        <v>1924.579505751839</v>
+        <v>1924.57950575184</v>
       </c>
       <c r="V18" t="n">
         <v>1689.427397520097</v>
       </c>
       <c r="W18" t="n">
-        <v>1435.190040791895</v>
+        <v>1435.190040791896</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.338540586362</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.578241821408</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.92671881256919</v>
+        <v>363.9564518072981</v>
       </c>
       <c r="C19" t="n">
-        <v>57.73545266099064</v>
+        <v>355.7651856557195</v>
       </c>
       <c r="D19" t="n">
-        <v>57.73545266099064</v>
+        <v>205.6485462433838</v>
       </c>
       <c r="E19" t="n">
-        <v>57.73545266099064</v>
+        <v>57.73545266099067</v>
       </c>
       <c r="F19" t="n">
-        <v>57.73545266099064</v>
+        <v>57.73545266099067</v>
       </c>
       <c r="G19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="H19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J19" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K19" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L19" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M19" t="n">
-        <v>613.9717596419546</v>
+        <v>613.9717596419547</v>
       </c>
       <c r="N19" t="n">
-        <v>846.2083111734212</v>
+        <v>846.2083111734213</v>
       </c>
       <c r="O19" t="n">
         <v>1044.700059573337</v>
@@ -5701,22 +5701,22 @@
         <v>1165.268677934206</v>
       </c>
       <c r="T19" t="n">
-        <v>940.3919470129888</v>
+        <v>940.391947012989</v>
       </c>
       <c r="U19" t="n">
-        <v>758.2242215982188</v>
+        <v>811.9942933129514</v>
       </c>
       <c r="V19" t="n">
-        <v>503.5397333923319</v>
+        <v>718.0547218833929</v>
       </c>
       <c r="W19" t="n">
-        <v>374.8674801316997</v>
+        <v>589.3824686227606</v>
       </c>
       <c r="X19" t="n">
-        <v>307.6228460100107</v>
+        <v>522.1378345010716</v>
       </c>
       <c r="Y19" t="n">
-        <v>86.83026686648054</v>
+        <v>462.0901721338698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1340.480033706641</v>
+        <v>1326.918087638774</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.262433542558</v>
+        <v>1118.70048747469</v>
       </c>
       <c r="D20" t="n">
-        <v>934.7416517121358</v>
+        <v>921.1797056442681</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6983158902199</v>
+        <v>696.1363698223522</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769407</v>
+        <v>445.8953818090731</v>
       </c>
       <c r="G20" t="n">
-        <v>203.5070677159692</v>
+        <v>189.9451216481012</v>
       </c>
       <c r="H20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I20" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J20" t="n">
         <v>103.9426226159524</v>
       </c>
       <c r="K20" t="n">
-        <v>355.2807432672831</v>
+        <v>235.4527613176465</v>
       </c>
       <c r="L20" t="n">
-        <v>555.3324611066112</v>
+        <v>435.5044791569746</v>
       </c>
       <c r="M20" t="n">
-        <v>1174.696674949679</v>
+        <v>689.7699985366934</v>
       </c>
       <c r="N20" t="n">
-        <v>1437.690284638211</v>
+        <v>1309.134212379761</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.684610848998</v>
+        <v>1706.932699903003</v>
       </c>
       <c r="P20" t="n">
-        <v>2215.752505283453</v>
+        <v>2191.581315427226</v>
       </c>
       <c r="Q20" t="n">
-        <v>2502.481672093204</v>
+        <v>2478.310482236977</v>
       </c>
       <c r="R20" t="n">
         <v>2502.481672093204</v>
@@ -5783,19 +5783,19 @@
         <v>2450.145354764249</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.791922739698</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V20" t="n">
-        <v>2200.473952172455</v>
+        <v>2186.912006104588</v>
       </c>
       <c r="W20" t="n">
-        <v>2008.45021367867</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X20" t="n">
-        <v>1795.729372193918</v>
+        <v>1782.16742612605</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.334956994435</v>
+        <v>1552.773010926567</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.3629048013404</v>
+        <v>954.0000968165722</v>
       </c>
       <c r="C21" t="n">
-        <v>676.9098755202134</v>
+        <v>779.5470675354452</v>
       </c>
       <c r="D21" t="n">
-        <v>527.9754658589621</v>
+        <v>630.6126578741939</v>
       </c>
       <c r="E21" t="n">
-        <v>368.7380108535066</v>
+        <v>471.3752028687384</v>
       </c>
       <c r="F21" t="n">
         <v>324.8406448956234</v>
@@ -5826,34 +5826,34 @@
         <v>88.72208916191755</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="J21" t="n">
-        <v>188.160206620026</v>
+        <v>63.33008163302127</v>
       </c>
       <c r="K21" t="n">
-        <v>289.0134325823041</v>
+        <v>164.1833075952994</v>
       </c>
       <c r="L21" t="n">
-        <v>838.0775239552833</v>
+        <v>713.2473989682787</v>
       </c>
       <c r="M21" t="n">
-        <v>1457.441737798351</v>
+        <v>1269.622482998477</v>
       </c>
       <c r="N21" t="n">
-        <v>2076.80595164142</v>
+        <v>1888.986696841545</v>
       </c>
       <c r="O21" t="n">
-        <v>2305.460057478434</v>
+        <v>2097.483542619944</v>
       </c>
       <c r="P21" t="n">
-        <v>2453.464091378942</v>
+        <v>2245.487576520452</v>
       </c>
       <c r="Q21" t="n">
         <v>2502.481672093204</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.412049266856</v>
+        <v>2494.412049266857</v>
       </c>
       <c r="S21" t="n">
         <v>2348.847071525871</v>
@@ -5862,19 +5862,19 @@
         <v>2152.704473365598</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.579505751839</v>
+        <v>2027.216697767071</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.427397520097</v>
+        <v>1792.064589535328</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.190040791895</v>
+        <v>1537.827232807127</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.338540586362</v>
+        <v>1329.975732601594</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.578241821408</v>
+        <v>1122.21543383664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.92671881256919</v>
+        <v>224.0392735338868</v>
       </c>
       <c r="C22" t="n">
-        <v>57.73545266099064</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="D22" t="n">
-        <v>57.73545266099064</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="E22" t="n">
-        <v>57.73545266099064</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="F22" t="n">
-        <v>57.73545266099064</v>
+        <v>215.8480073823082</v>
       </c>
       <c r="G22" t="n">
-        <v>50.04963344186408</v>
+        <v>208.1621881631816</v>
       </c>
       <c r="H22" t="n">
-        <v>50.04963344186408</v>
+        <v>55.47331425349359</v>
       </c>
       <c r="I22" t="n">
-        <v>50.04963344186408</v>
+        <v>55.47331425349359</v>
       </c>
       <c r="J22" t="n">
-        <v>50.04963344186408</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="K22" t="n">
         <v>171.1510606889163</v>
       </c>
       <c r="L22" t="n">
-        <v>381.6456284059857</v>
+        <v>381.6456284059858</v>
       </c>
       <c r="M22" t="n">
-        <v>613.9717596419546</v>
+        <v>613.9717596419547</v>
       </c>
       <c r="N22" t="n">
-        <v>846.2083111734212</v>
+        <v>846.2083111734213</v>
       </c>
       <c r="O22" t="n">
         <v>1044.700059573337</v>
@@ -5935,25 +5935,25 @@
         <v>1208.894946173081</v>
       </c>
       <c r="S22" t="n">
-        <v>1111.498606219473</v>
+        <v>1165.268677934206</v>
       </c>
       <c r="T22" t="n">
-        <v>1047.366792074585</v>
+        <v>1101.136863789317</v>
       </c>
       <c r="U22" t="n">
-        <v>918.969138374547</v>
+        <v>972.7392100892798</v>
       </c>
       <c r="V22" t="n">
-        <v>664.2846501686602</v>
+        <v>878.7996386597213</v>
       </c>
       <c r="W22" t="n">
-        <v>374.8674801316996</v>
+        <v>589.3824686227606</v>
       </c>
       <c r="X22" t="n">
-        <v>146.8779292336823</v>
+        <v>522.1378345010716</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.83026686648054</v>
+        <v>405.6877383641265</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216849</v>
+        <v>935.0184261216845</v>
       </c>
       <c r="E23" t="n">
-        <v>709.975090299769</v>
+        <v>709.9750902997686</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864898</v>
+        <v>459.7341022864894</v>
       </c>
       <c r="G23" t="n">
         <v>203.7838421255176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="I23" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J23" t="n">
-        <v>271.6250460458538</v>
+        <v>104.2193970255008</v>
       </c>
       <c r="K23" t="n">
-        <v>724.0391431930009</v>
+        <v>235.7295357271948</v>
       </c>
       <c r="L23" t="n">
-        <v>1337.575463437275</v>
+        <v>818.9062978321093</v>
       </c>
       <c r="M23" t="n">
-        <v>1591.840982816994</v>
+        <v>1073.171817211828</v>
       </c>
       <c r="N23" t="n">
-        <v>2038.713025319051</v>
+        <v>1695.961114373057</v>
       </c>
       <c r="O23" t="n">
-        <v>2273.71517207972</v>
+        <v>1930.963261133726</v>
       </c>
       <c r="P23" t="n">
-        <v>2439.783066514176</v>
+        <v>2415.611876657949</v>
       </c>
       <c r="Q23" t="n">
-        <v>2516.320392570621</v>
+        <v>2492.149202714394</v>
       </c>
       <c r="R23" t="n">
         <v>2516.320392570621</v>
@@ -6017,7 +6017,7 @@
         <v>2516.320392570621</v>
       </c>
       <c r="T23" t="n">
-        <v>2463.984075241665</v>
+        <v>2463.984075241666</v>
       </c>
       <c r="U23" t="n">
         <v>2371.068697149247</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>865.2016252787571</v>
+        <v>954.2768712261205</v>
       </c>
       <c r="C24" t="n">
-        <v>690.7485959976301</v>
+        <v>779.8238419449935</v>
       </c>
       <c r="D24" t="n">
         <v>630.8894322837423</v>
@@ -6063,25 +6063,25 @@
         <v>88.99886357146589</v>
       </c>
       <c r="I24" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="J24" t="n">
-        <v>63.60685604256956</v>
+        <v>63.6068560425696</v>
       </c>
       <c r="K24" t="n">
-        <v>392.0072972097335</v>
+        <v>164.4600820048478</v>
       </c>
       <c r="L24" t="n">
-        <v>941.0713885827126</v>
+        <v>475.2996417710318</v>
       </c>
       <c r="M24" t="n">
-        <v>1172.734494062685</v>
+        <v>1098.088938932261</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.523791223914</v>
+        <v>1720.878236093489</v>
       </c>
       <c r="O24" t="n">
-        <v>2004.020637002313</v>
+        <v>2319.298777955851</v>
       </c>
       <c r="P24" t="n">
         <v>2467.302811856359</v>
@@ -6090,28 +6090,28 @@
         <v>2516.320392570621</v>
       </c>
       <c r="R24" t="n">
-        <v>2508.250769744273</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="S24" t="n">
-        <v>2362.685792003288</v>
+        <v>2370.755414829636</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.543193843015</v>
+        <v>2174.612816669363</v>
       </c>
       <c r="U24" t="n">
-        <v>1938.418226229256</v>
+        <v>1946.487849055604</v>
       </c>
       <c r="V24" t="n">
-        <v>1703.266117997513</v>
+        <v>1711.335740823862</v>
       </c>
       <c r="W24" t="n">
-        <v>1449.028761269312</v>
+        <v>1538.104007216675</v>
       </c>
       <c r="X24" t="n">
-        <v>1241.177261063779</v>
+        <v>1330.252507011142</v>
       </c>
       <c r="Y24" t="n">
-        <v>1033.416962298825</v>
+        <v>1122.492208246189</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.4887302224111</v>
+        <v>280.7184817131786</v>
       </c>
       <c r="C25" t="n">
-        <v>374.2974640708326</v>
+        <v>272.5272155616</v>
       </c>
       <c r="D25" t="n">
-        <v>224.1808246584968</v>
+        <v>272.5272155616</v>
       </c>
       <c r="E25" t="n">
-        <v>224.1808246584968</v>
+        <v>124.6141219792069</v>
       </c>
       <c r="F25" t="n">
-        <v>224.1808246584968</v>
+        <v>124.6141219792069</v>
       </c>
       <c r="G25" t="n">
         <v>55.75008866304193</v>
@@ -6145,19 +6145,19 @@
         <v>55.75008866304193</v>
       </c>
       <c r="J25" t="n">
-        <v>50.32640785141241</v>
+        <v>50.32640785141243</v>
       </c>
       <c r="K25" t="n">
-        <v>171.4278350984646</v>
+        <v>171.4278350984647</v>
       </c>
       <c r="L25" t="n">
-        <v>381.9224028155341</v>
+        <v>381.9224028155342</v>
       </c>
       <c r="M25" t="n">
-        <v>614.2485340515029</v>
+        <v>614.248534051503</v>
       </c>
       <c r="N25" t="n">
-        <v>846.4850855829695</v>
+        <v>846.4850855829696</v>
       </c>
       <c r="O25" t="n">
         <v>1044.976833982885</v>
@@ -6166,31 +6166,31 @@
         <v>1191.300133019278</v>
       </c>
       <c r="Q25" t="n">
-        <v>1209.171720582629</v>
+        <v>1209.17172058263</v>
       </c>
       <c r="R25" t="n">
-        <v>1209.171720582629</v>
+        <v>1209.17172058263</v>
       </c>
       <c r="S25" t="n">
         <v>1165.545452343754</v>
       </c>
       <c r="T25" t="n">
-        <v>1042.43896993177</v>
+        <v>1101.413638198866</v>
       </c>
       <c r="U25" t="n">
-        <v>914.0413162317324</v>
+        <v>812.2710677224999</v>
       </c>
       <c r="V25" t="n">
-        <v>659.3568280258455</v>
+        <v>557.586579516613</v>
       </c>
       <c r="W25" t="n">
-        <v>530.6845747652133</v>
+        <v>428.9143262559808</v>
       </c>
       <c r="X25" t="n">
-        <v>463.4399406435242</v>
+        <v>361.6696921342917</v>
       </c>
       <c r="Y25" t="n">
-        <v>403.3922782763225</v>
+        <v>301.6220297670899</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1870.358268404897</v>
+        <v>1870.358268404898</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852651</v>
       </c>
       <c r="D26" t="n">
         <v>1303.874969634064</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239834</v>
+        <v>998.4591754239841</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225407</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734037</v>
+        <v>331.5230104734042</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113439</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I26" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J26" t="n">
-        <v>294.8071413586976</v>
+        <v>294.8071413586977</v>
       </c>
       <c r="K26" t="n">
-        <v>747.2212385058448</v>
+        <v>672.5791595784799</v>
       </c>
       <c r="L26" t="n">
-        <v>1360.757558750119</v>
+        <v>872.6308774178081</v>
       </c>
       <c r="M26" t="n">
-        <v>2060.041476287742</v>
+        <v>1571.914794955431</v>
       </c>
       <c r="N26" t="n">
-        <v>2756.008541144138</v>
+        <v>2267.881859811827</v>
       </c>
       <c r="O26" t="n">
-        <v>2991.010687904806</v>
+        <v>2879.876186022614</v>
       </c>
       <c r="P26" t="n">
-        <v>3475.659303429029</v>
+        <v>3364.524801546837</v>
       </c>
       <c r="Q26" t="n">
-        <v>3675.425158212814</v>
+        <v>3651.253968356588</v>
       </c>
       <c r="R26" t="n">
-        <v>3675.425158212814</v>
+        <v>3675.425158212815</v>
       </c>
       <c r="S26" t="n">
-        <v>3608.529061576477</v>
+        <v>3608.529061576478</v>
       </c>
       <c r="T26" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859359</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378776</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423369</v>
       </c>
       <c r="W26" t="n">
         <v>2779.445823541419</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668504</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080856</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I27" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J27" t="n">
-        <v>211.6190763424182</v>
+        <v>86.78895135541349</v>
       </c>
       <c r="K27" t="n">
-        <v>574.2928869471491</v>
+        <v>187.6421773176917</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.667519036387</v>
+        <v>413.672324698415</v>
       </c>
       <c r="M27" t="n">
-        <v>1288.33062451636</v>
+        <v>1106.383443290888</v>
       </c>
       <c r="N27" t="n">
-        <v>2015.082758579169</v>
+        <v>1833.135577353696</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.579604357568</v>
+        <v>2431.556119216058</v>
       </c>
       <c r="P27" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.577733830828</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.0923641956791</v>
+        <v>565.0923641956796</v>
       </c>
       <c r="C28" t="n">
-        <v>476.5286396559364</v>
+        <v>476.5286396559368</v>
       </c>
       <c r="D28" t="n">
-        <v>406.7844586317649</v>
+        <v>406.7844586317653</v>
       </c>
       <c r="E28" t="n">
-        <v>339.243823437536</v>
+        <v>339.2438234375363</v>
       </c>
       <c r="F28" t="n">
-        <v>272.7263343277899</v>
+        <v>272.7263343277901</v>
       </c>
       <c r="G28" t="n">
-        <v>184.6680567204992</v>
+        <v>184.6680567204994</v>
       </c>
       <c r="H28" t="n">
         <v>112.3516411989754</v>
       </c>
       <c r="I28" t="n">
-        <v>73.50850316425628</v>
+        <v>73.50850316425631</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9658000670179</v>
+        <v>146.9658000670181</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803099</v>
+        <v>346.84027378031</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636191</v>
+        <v>636.1078879636192</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658277</v>
       </c>
       <c r="N28" t="n">
         <v>1258.216663663534</v>
@@ -6400,34 +6400,34 @@
         <v>1535.481458529689</v>
       </c>
       <c r="P28" t="n">
-        <v>1760.577804032321</v>
+        <v>1760.577804032322</v>
       </c>
       <c r="Q28" t="n">
         <v>1857.222438061913</v>
       </c>
       <c r="R28" t="n">
-        <v>1815.035436617787</v>
+        <v>1815.035436617788</v>
       </c>
       <c r="S28" t="n">
         <v>1691.036709990748</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457696</v>
       </c>
       <c r="U28" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369494</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.45029555177</v>
+        <v>1163.450295551771</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029736</v>
+        <v>954.4055839029742</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931205</v>
+        <v>806.788491393121</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377547</v>
+        <v>666.3683706377551</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.358268404899</v>
+        <v>1870.358268404898</v>
       </c>
       <c r="C29" t="n">
-        <v>1581.768209852651</v>
+        <v>1581.76820985265</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.874969634065</v>
+        <v>1303.874969634064</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239846</v>
+        <v>998.4591754239839</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225411</v>
+        <v>667.8457290225404</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734046</v>
+        <v>331.5230104734037</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113447</v>
+        <v>97.69311781113454</v>
       </c>
       <c r="I29" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J29" t="n">
-        <v>294.8071413586977</v>
+        <v>183.6726394765055</v>
       </c>
       <c r="K29" t="n">
-        <v>747.2212385058449</v>
+        <v>636.0867366236528</v>
       </c>
       <c r="L29" t="n">
-        <v>1360.757558750119</v>
+        <v>1249.623056867927</v>
       </c>
       <c r="M29" t="n">
-        <v>1806.277825564965</v>
+        <v>1948.90697440555</v>
       </c>
       <c r="N29" t="n">
-        <v>2502.244890421361</v>
+        <v>2644.874039261946</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.239216632147</v>
+        <v>2879.876186022615</v>
       </c>
       <c r="P29" t="n">
-        <v>3598.88783215637</v>
+        <v>3364.524801546838</v>
       </c>
       <c r="Q29" t="n">
-        <v>3675.425158212815</v>
+        <v>3651.253968356589</v>
       </c>
       <c r="R29" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212816</v>
       </c>
       <c r="S29" t="n">
         <v>3608.529061576478</v>
@@ -6537,28 +6537,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I30" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J30" t="n">
-        <v>211.6190763424182</v>
+        <v>211.6190763424183</v>
       </c>
       <c r="K30" t="n">
-        <v>312.4723023046963</v>
+        <v>574.2928869471492</v>
       </c>
       <c r="L30" t="n">
-        <v>494.4044518272509</v>
+        <v>1123.356978320129</v>
       </c>
       <c r="M30" t="n">
-        <v>898.4069284323976</v>
+        <v>1496.30713937485</v>
       </c>
       <c r="N30" t="n">
-        <v>1625.159062495206</v>
+        <v>2223.059273437659</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.579604357568</v>
+        <v>2431.556119216058</v>
       </c>
       <c r="P30" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.577733830828</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.0923641956789</v>
+        <v>565.0923641956784</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5286396559362</v>
+        <v>476.5286396559356</v>
       </c>
       <c r="D31" t="n">
-        <v>406.7844586317646</v>
+        <v>406.784458631764</v>
       </c>
       <c r="E31" t="n">
-        <v>339.2438234375356</v>
+        <v>339.243823437535</v>
       </c>
       <c r="F31" t="n">
-        <v>272.7263343277895</v>
+        <v>272.7263343277903</v>
       </c>
       <c r="G31" t="n">
-        <v>184.6680567204987</v>
+        <v>184.6680567204994</v>
       </c>
       <c r="H31" t="n">
-        <v>112.3516411989749</v>
+        <v>112.3516411989755</v>
       </c>
       <c r="I31" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J31" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803099</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636191</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658275</v>
+        <v>947.2070656658274</v>
       </c>
       <c r="N31" t="n">
         <v>1258.216663663534</v>
@@ -6640,7 +6640,7 @@
         <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061912</v>
       </c>
       <c r="R31" t="n">
         <v>1815.035436617787</v>
@@ -6649,22 +6649,22 @@
         <v>1691.036709990747</v>
       </c>
       <c r="T31" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457694</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369492</v>
       </c>
       <c r="V31" t="n">
         <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029738</v>
+        <v>954.405583902973</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931207</v>
+        <v>806.7884913931198</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377544</v>
+        <v>666.3683706377541</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404898</v>
+        <v>1870.358268404899</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.768209852651</v>
+        <v>1581.768209852652</v>
       </c>
       <c r="D32" t="n">
         <v>1303.874969634065</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239844</v>
+        <v>998.459175423985</v>
       </c>
       <c r="F32" t="n">
-        <v>667.845729022541</v>
+        <v>667.8457290225415</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734042</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113448</v>
+        <v>97.69311781113454</v>
       </c>
       <c r="I32" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J32" t="n">
-        <v>294.8071413586977</v>
+        <v>127.4014923383447</v>
       </c>
       <c r="K32" t="n">
-        <v>469.2863979268406</v>
+        <v>493.4575877830678</v>
       </c>
       <c r="L32" t="n">
-        <v>1082.822718171115</v>
+        <v>1106.993908027342</v>
       </c>
       <c r="M32" t="n">
-        <v>1782.106635708737</v>
+        <v>1806.277825564965</v>
       </c>
       <c r="N32" t="n">
-        <v>2478.073700565134</v>
+        <v>2502.244890421361</v>
       </c>
       <c r="O32" t="n">
-        <v>3090.06802677592</v>
+        <v>3114.239216632148</v>
       </c>
       <c r="P32" t="n">
-        <v>3574.716642300143</v>
+        <v>3598.887832156371</v>
       </c>
       <c r="Q32" t="n">
-        <v>3651.253968356588</v>
+        <v>3675.425158212816</v>
       </c>
       <c r="R32" t="n">
-        <v>3675.425158212815</v>
+        <v>3675.425158212816</v>
       </c>
       <c r="S32" t="n">
-        <v>3608.529061576478</v>
+        <v>3608.529061576479</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.820285859358</v>
+        <v>3475.820285859359</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378776</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423369</v>
+        <v>3051.84202042337</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.44582354142</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668504</v>
+        <v>2486.352523668505</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.585650080856</v>
+        <v>2176.585650080857</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>112.1809588843098</v>
       </c>
       <c r="I33" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J33" t="n">
-        <v>86.78895135541346</v>
+        <v>86.7889513554135</v>
       </c>
       <c r="K33" t="n">
-        <v>449.4627619601444</v>
+        <v>449.4627619601445</v>
       </c>
       <c r="L33" t="n">
-        <v>998.5268533331237</v>
+        <v>998.5268533331238</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.189958813096</v>
+        <v>1496.30713937485</v>
       </c>
       <c r="N33" t="n">
-        <v>1956.942092875905</v>
+        <v>2223.059273437659</v>
       </c>
       <c r="O33" t="n">
-        <v>2165.438938654304</v>
+        <v>2431.556119216058</v>
       </c>
       <c r="P33" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956796</v>
+        <v>565.09236419568</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559368</v>
+        <v>476.5286396559372</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317653</v>
+        <v>406.7844586317656</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375363</v>
+        <v>339.2438234375365</v>
       </c>
       <c r="F34" t="n">
-        <v>272.7263343277901</v>
+        <v>272.7263343277903</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204994</v>
+        <v>184.6680567204995</v>
       </c>
       <c r="H34" t="n">
         <v>112.3516411989755</v>
       </c>
       <c r="I34" t="n">
-        <v>73.50850316425631</v>
+        <v>73.50850316425633</v>
       </c>
       <c r="J34" t="n">
         <v>146.9658000670179</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803098</v>
+        <v>346.8402737803112</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636194</v>
+        <v>636.1078879636203</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658279</v>
+        <v>947.2070656658288</v>
       </c>
       <c r="N34" t="n">
-        <v>1258.216663663534</v>
+        <v>1258.216663663535</v>
       </c>
       <c r="O34" t="n">
-        <v>1535.481458529689</v>
+        <v>1535.48145852969</v>
       </c>
       <c r="P34" t="n">
-        <v>1760.577804032322</v>
+        <v>1760.577804032323</v>
       </c>
       <c r="Q34" t="n">
-        <v>1857.222438061913</v>
+        <v>1857.222438061914</v>
       </c>
       <c r="R34" t="n">
         <v>1815.035436617788</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.036709990748</v>
+        <v>1691.036709990749</v>
       </c>
       <c r="T34" t="n">
-        <v>1546.532437457695</v>
+        <v>1546.532437457696</v>
       </c>
       <c r="U34" t="n">
         <v>1337.762325369494</v>
@@ -6895,13 +6895,13 @@
         <v>1163.450295551771</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029743</v>
+        <v>954.405583902975</v>
       </c>
       <c r="X34" t="n">
-        <v>806.788491393121</v>
+        <v>806.7884913931217</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.3683706377551</v>
+        <v>666.3683706377557</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.19033990825</v>
+        <v>1425.190339908249</v>
       </c>
       <c r="C35" t="n">
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100903</v>
+        <v>992.4992344100898</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363473</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F35" t="n">
-        <v>490.262187071241</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G35" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H35" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="I35" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J35" t="n">
-        <v>107.7947583065977</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K35" t="n">
-        <v>239.3048970082917</v>
+        <v>406.7105460286449</v>
       </c>
       <c r="L35" t="n">
-        <v>852.8412172525657</v>
+        <v>1020.246866272919</v>
       </c>
       <c r="M35" t="n">
-        <v>1519.875610267369</v>
+        <v>1687.281259287723</v>
       </c>
       <c r="N35" t="n">
-        <v>2186.910003282173</v>
+        <v>2193.309899517673</v>
       </c>
       <c r="O35" t="n">
-        <v>2421.912150042842</v>
+        <v>2428.312046278342</v>
       </c>
       <c r="P35" t="n">
-        <v>2618.551130569025</v>
+        <v>2594.379940712797</v>
       </c>
       <c r="Q35" t="n">
-        <v>2695.08845662547</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.08845662547</v>
+        <v>2695.088456625469</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544688</v>
+        <v>2629.275777544687</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700442</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381372</v>
+        <v>2339.089705381371</v>
       </c>
       <c r="W35" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.392401899181</v>
+        <v>1907.39240189918</v>
       </c>
       <c r="Y35" t="n">
         <v>1664.52162494787</v>
@@ -7005,28 +7005,28 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G36" t="n">
-        <v>191.4614450466417</v>
+        <v>191.4614450466416</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256285</v>
       </c>
       <c r="I36" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J36" t="n">
-        <v>192.0123423106713</v>
+        <v>67.18221732366656</v>
       </c>
       <c r="K36" t="n">
-        <v>292.8655682729494</v>
+        <v>168.0354432859447</v>
       </c>
       <c r="L36" t="n">
-        <v>474.797717795504</v>
+        <v>349.9675928084994</v>
       </c>
       <c r="M36" t="n">
-        <v>831.216309353608</v>
+        <v>831.2163093536077</v>
       </c>
       <c r="N36" t="n">
-        <v>1498.250702368412</v>
+        <v>1498.250702368411</v>
       </c>
       <c r="O36" t="n">
         <v>2096.671244230773</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.9130748622829</v>
+        <v>350.7042275078148</v>
       </c>
       <c r="C37" t="n">
-        <v>231.2454469588773</v>
+        <v>329.0365996044092</v>
       </c>
       <c r="D37" t="n">
-        <v>228.3973625710429</v>
+        <v>326.1885152165748</v>
       </c>
       <c r="E37" t="n">
-        <v>227.7528240131511</v>
+        <v>325.543976658683</v>
       </c>
       <c r="F37" t="n">
-        <v>227.7528240131511</v>
+        <v>325.543976658683</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769615</v>
+        <v>178.5376844405795</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9017691325094</v>
+        <v>173.1173655553927</v>
       </c>
       <c r="I37" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="J37" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250939</v>
       </c>
       <c r="K37" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L37" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966312</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325999</v>
+        <v>617.8238953326</v>
       </c>
       <c r="N37" t="n">
-        <v>850.0604468640665</v>
+        <v>850.0604468640666</v>
       </c>
       <c r="O37" t="n">
         <v>1048.552195263982</v>
@@ -7114,10 +7114,10 @@
         <v>1194.875494300375</v>
       </c>
       <c r="Q37" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="R37" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="S37" t="n">
         <v>1155.644451873024</v>
@@ -7126,19 +7126,19 @@
         <v>1078.036275976309</v>
       </c>
       <c r="U37" t="n">
-        <v>936.162260524444</v>
+        <v>936.1622605244443</v>
       </c>
       <c r="V37" t="n">
-        <v>828.7463273430585</v>
+        <v>828.7463273430587</v>
       </c>
       <c r="W37" t="n">
-        <v>588.8065596850674</v>
+        <v>686.5977123305994</v>
       </c>
       <c r="X37" t="n">
-        <v>508.0855638115514</v>
+        <v>605.8767164570834</v>
       </c>
       <c r="Y37" t="n">
-        <v>287.2929846680213</v>
+        <v>385.0841373135532</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>220.8355651584416</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J38" t="n">
-        <v>107.7947583065977</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K38" t="n">
-        <v>560.2088554537448</v>
+        <v>727.614504474098</v>
       </c>
       <c r="L38" t="n">
-        <v>760.2605732930729</v>
+        <v>927.666222313426</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.526092672792</v>
+        <v>1594.70061532823</v>
       </c>
       <c r="N38" t="n">
-        <v>1311.716348080709</v>
+        <v>1983.118058764367</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.710674291495</v>
+        <v>2218.120205525036</v>
       </c>
       <c r="P38" t="n">
-        <v>2408.359289815719</v>
+        <v>2384.188099959491</v>
       </c>
       <c r="Q38" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769242</v>
       </c>
       <c r="R38" t="n">
         <v>2695.088456625469</v>
@@ -7242,31 +7242,31 @@
         <v>328.6927805862687</v>
       </c>
       <c r="G39" t="n">
-        <v>191.4614450466417</v>
+        <v>191.4614450466416</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256285</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J39" t="n">
-        <v>67.18221732366653</v>
+        <v>67.18221732366655</v>
       </c>
       <c r="K39" t="n">
-        <v>320.3196620033253</v>
+        <v>429.8560279283976</v>
       </c>
       <c r="L39" t="n">
-        <v>869.3837533763045</v>
+        <v>978.9201193013769</v>
       </c>
       <c r="M39" t="n">
-        <v>1536.418146391108</v>
+        <v>1645.95451231618</v>
       </c>
       <c r="N39" t="n">
-        <v>2203.452539405912</v>
+        <v>1898.157695778871</v>
       </c>
       <c r="O39" t="n">
-        <v>2411.949385184311</v>
+        <v>2106.65454155727</v>
       </c>
       <c r="P39" t="n">
         <v>2559.953419084819</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>228.1447676755246</v>
+        <v>497.9727825323159</v>
       </c>
       <c r="C40" t="n">
-        <v>206.477139772119</v>
+        <v>476.3051546289103</v>
       </c>
       <c r="D40" t="n">
-        <v>203.6290553842846</v>
+        <v>473.4570702410759</v>
       </c>
       <c r="E40" t="n">
-        <v>202.9845168263927</v>
+        <v>325.5439766586828</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864976</v>
+        <v>178.6540291607724</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769615</v>
+        <v>59.32208801769613</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250938</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L40" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966311</v>
       </c>
       <c r="M40" t="n">
         <v>617.8238953325999</v>
@@ -7354,28 +7354,28 @@
         <v>1212.747081863726</v>
       </c>
       <c r="R40" t="n">
-        <v>1090.187622031437</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S40" t="n">
-        <v>1033.084992040734</v>
+        <v>1155.644451873024</v>
       </c>
       <c r="T40" t="n">
-        <v>955.4768161440187</v>
+        <v>1078.036275976309</v>
       </c>
       <c r="U40" t="n">
-        <v>813.6028006921541</v>
+        <v>936.162260524444</v>
       </c>
       <c r="V40" t="n">
-        <v>706.1868675107685</v>
+        <v>828.7463273430585</v>
       </c>
       <c r="W40" t="n">
-        <v>564.0382524983091</v>
+        <v>686.5977123305992</v>
       </c>
       <c r="X40" t="n">
-        <v>483.3172566247931</v>
+        <v>605.8767164570831</v>
       </c>
       <c r="Y40" t="n">
-        <v>409.7932325057643</v>
+        <v>532.3526923380543</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C41" t="n">
         <v>1203.496377992339</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100896</v>
+        <v>992.4992344100903</v>
       </c>
       <c r="E41" t="n">
-        <v>753.9795368363466</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712403</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8355651584417</v>
+        <v>220.8355651584416</v>
       </c>
       <c r="H41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I41" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J41" t="n">
         <v>107.7947583065977</v>
       </c>
       <c r="K41" t="n">
-        <v>560.2088554537448</v>
+        <v>560.2088554537449</v>
       </c>
       <c r="L41" t="n">
-        <v>1173.745175698019</v>
+        <v>760.2605732930731</v>
       </c>
       <c r="M41" t="n">
-        <v>1428.010695077738</v>
+        <v>1427.294966307877</v>
       </c>
       <c r="N41" t="n">
-        <v>1691.004304766269</v>
+        <v>1690.288575996409</v>
       </c>
       <c r="O41" t="n">
-        <v>2242.291395381263</v>
+        <v>1925.290722757077</v>
       </c>
       <c r="P41" t="n">
-        <v>2408.359289815719</v>
+        <v>2384.188099959492</v>
       </c>
       <c r="Q41" t="n">
-        <v>2695.088456625469</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R41" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S41" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T41" t="n">
         <v>2629.275777544687</v>
       </c>
       <c r="U41" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W41" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X41" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y41" t="n">
         <v>1664.52162494787</v>
@@ -7482,31 +7482,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256286</v>
       </c>
       <c r="I42" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J42" t="n">
-        <v>141.7087918586793</v>
+        <v>67.18221732366658</v>
       </c>
       <c r="K42" t="n">
-        <v>504.3826024634102</v>
+        <v>168.0354432859448</v>
       </c>
       <c r="L42" t="n">
-        <v>686.3147519859648</v>
+        <v>717.0995346589241</v>
       </c>
       <c r="M42" t="n">
-        <v>1353.349145000768</v>
+        <v>1384.133927673728</v>
       </c>
       <c r="N42" t="n">
-        <v>1605.552328463459</v>
+        <v>1636.337111136419</v>
       </c>
       <c r="O42" t="n">
-        <v>2203.972870325821</v>
+        <v>2234.75765299878</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.976904226328</v>
+        <v>2382.761686899288</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.970999799081</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>497.9727825323157</v>
+        <v>105.6445198377816</v>
       </c>
       <c r="C43" t="n">
-        <v>476.3051546289101</v>
+        <v>83.97689193437598</v>
       </c>
       <c r="D43" t="n">
-        <v>375.6659175955442</v>
+        <v>81.12880754654157</v>
       </c>
       <c r="E43" t="n">
-        <v>227.7528240131511</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="F43" t="n">
-        <v>227.7528240131511</v>
+        <v>80.48426898864976</v>
       </c>
       <c r="G43" t="n">
-        <v>206.5906430421975</v>
+        <v>59.32208801769615</v>
       </c>
       <c r="H43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J43" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L43" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966312</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325999</v>
+        <v>617.8238953326</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640665</v>
+        <v>850.0604468640666</v>
       </c>
       <c r="O43" t="n">
         <v>1048.552195263982</v>
@@ -7588,31 +7588,31 @@
         <v>1194.875494300375</v>
       </c>
       <c r="Q43" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="R43" t="n">
-        <v>1212.747081863726</v>
+        <v>1090.187622031437</v>
       </c>
       <c r="S43" t="n">
-        <v>1155.644451873024</v>
+        <v>1033.084992040735</v>
       </c>
       <c r="T43" t="n">
-        <v>1078.036275976309</v>
+        <v>955.4768161440189</v>
       </c>
       <c r="U43" t="n">
-        <v>936.162260524444</v>
+        <v>813.6028006921543</v>
       </c>
       <c r="V43" t="n">
-        <v>828.7463273430584</v>
+        <v>583.6866196730255</v>
       </c>
       <c r="W43" t="n">
-        <v>686.5977123305991</v>
+        <v>294.2694496360649</v>
       </c>
       <c r="X43" t="n">
-        <v>605.8767164570829</v>
+        <v>213.5484537625488</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.3526923380541</v>
+        <v>140.02442964352</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.496377992339</v>
+        <v>1203.49637799234</v>
       </c>
       <c r="D44" t="n">
-        <v>992.4992344100897</v>
+        <v>992.4992344100906</v>
       </c>
       <c r="E44" t="n">
-        <v>753.9795368363466</v>
+        <v>753.9795368363477</v>
       </c>
       <c r="F44" t="n">
-        <v>490.2621870712406</v>
+        <v>490.2621870712416</v>
       </c>
       <c r="G44" t="n">
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J44" t="n">
-        <v>107.7947583065977</v>
+        <v>275.2004073269508</v>
       </c>
       <c r="K44" t="n">
-        <v>560.2088554537448</v>
+        <v>406.7105460286449</v>
       </c>
       <c r="L44" t="n">
-        <v>1173.745175698019</v>
+        <v>708.9971567759543</v>
       </c>
       <c r="M44" t="n">
-        <v>1840.779568712822</v>
+        <v>963.262676155673</v>
       </c>
       <c r="N44" t="n">
-        <v>2103.773178401354</v>
+        <v>1630.297069170477</v>
       </c>
       <c r="O44" t="n">
-        <v>2338.775325162022</v>
+        <v>2242.291395381264</v>
       </c>
       <c r="P44" t="n">
-        <v>2618.551130569024</v>
+        <v>2408.359289815719</v>
       </c>
       <c r="Q44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U44" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V44" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W44" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X44" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y44" t="n">
         <v>1664.52162494787</v>
@@ -7719,25 +7719,25 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256286</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0123423106713</v>
+        <v>67.18221732366658</v>
       </c>
       <c r="K45" t="n">
-        <v>554.6861529154022</v>
+        <v>168.0354432859448</v>
       </c>
       <c r="L45" t="n">
-        <v>1103.750244288382</v>
+        <v>717.0995346589241</v>
       </c>
       <c r="M45" t="n">
-        <v>1335.413349768354</v>
+        <v>1384.133927673728</v>
       </c>
       <c r="N45" t="n">
-        <v>1813.52884332195</v>
+        <v>2051.168320688532</v>
       </c>
       <c r="O45" t="n">
         <v>2411.949385184311</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.4356724833133</v>
+        <v>252.9130748622827</v>
       </c>
       <c r="C46" t="n">
-        <v>181.7680445799078</v>
+        <v>231.2454469588772</v>
       </c>
       <c r="D46" t="n">
-        <v>178.9199601920733</v>
+        <v>228.3973625710428</v>
       </c>
       <c r="E46" t="n">
-        <v>178.2754216341816</v>
+        <v>227.752824013151</v>
       </c>
       <c r="F46" t="n">
-        <v>178.2754216341816</v>
+        <v>227.752824013151</v>
       </c>
       <c r="G46" t="n">
-        <v>157.113240663228</v>
+        <v>59.3220880176961</v>
       </c>
       <c r="H46" t="n">
-        <v>151.6929217780412</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.9017691325094</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795616</v>
       </c>
       <c r="L46" t="n">
-        <v>385.497764096631</v>
+        <v>385.4977640966312</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325999</v>
+        <v>617.8238953326</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640665</v>
+        <v>850.0604468640666</v>
       </c>
       <c r="O46" t="n">
         <v>1048.552195263982</v>
@@ -7825,31 +7825,31 @@
         <v>1194.875494300375</v>
       </c>
       <c r="Q46" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="R46" t="n">
-        <v>1212.747081863726</v>
+        <v>1212.747081863727</v>
       </c>
       <c r="S46" t="n">
-        <v>1155.644451873024</v>
+        <v>1008.375896848523</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.036275976309</v>
+        <v>832.9765683062751</v>
       </c>
       <c r="U46" t="n">
-        <v>936.162260524444</v>
+        <v>691.1025528544105</v>
       </c>
       <c r="V46" t="n">
-        <v>828.7463273430585</v>
+        <v>583.686619673025</v>
       </c>
       <c r="W46" t="n">
-        <v>539.3291573060978</v>
+        <v>441.5380046605658</v>
       </c>
       <c r="X46" t="n">
-        <v>458.6081614325818</v>
+        <v>360.8170087870498</v>
       </c>
       <c r="Y46" t="n">
-        <v>237.8155822890517</v>
+        <v>287.2929846680211</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.99169611741644</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>198.1952070656003</v>
       </c>
       <c r="N11" t="n">
-        <v>189.3789542284158</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>184.8567151631858</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>221.0259281764552</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>172.685349923912</v>
       </c>
       <c r="O12" t="n">
-        <v>173.2032102350034</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>305.5300408829852</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>368.7865600639891</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>379.7297835888722</v>
       </c>
       <c r="P14" t="n">
-        <v>296.4923229778937</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>41.3010765838641</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.8978979520805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5203212885593</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>232.0744670219724</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>368.7865600639892</v>
       </c>
       <c r="N17" t="n">
-        <v>359.9703072268043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>180.0398386969565</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>41.3010765838641</v>
+        <v>41.30107658386407</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>95.1566836585267</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>391.6172811748436</v>
+        <v>308.3053528294394</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>121.0383656056936</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>368.7865600639891</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>359.9703072268042</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>164.4407482450231</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>391.6172811748436</v>
+        <v>327.9918975254799</v>
       </c>
       <c r="N21" t="n">
         <v>370.8697276569469</v>
       </c>
       <c r="O21" t="n">
-        <v>20.36086874607571</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>386.994994207663</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>185.7357907207334</v>
+        <v>363.4299873461584</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>229.845671924127</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>130.2095052965953</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0769612941978</v>
       </c>
       <c r="N24" t="n">
         <v>374.3294077763011</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>248.7493732505941</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4732613407469</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>303.4772551178621</v>
+        <v>44.54343217996831</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>56.83954256379887</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>193.1866135708354</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>174.0801728537111</v>
+        <v>142.7141975502512</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>43.40314936004933</v>
+        <v>236.9151078212414</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386407</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>268.8052328906601</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>58.72794515481169</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>416.9382561970556</v>
+        <v>416.9382561970555</v>
       </c>
       <c r="N35" t="n">
-        <v>408.1220033598707</v>
+        <v>245.4899298398165</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>30.8798849411389</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>126.0156425031629</v>
+        <v>252.1066778435712</v>
       </c>
       <c r="N36" t="n">
-        <v>419.0214237900134</v>
+        <v>419.0214237900132</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.9382561970554</v>
       </c>
       <c r="N38" t="n">
-        <v>34.54206638321745</v>
+        <v>126.6907411591974</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>153.8224431488694</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>439.7689773079101</v>
+        <v>439.7689773079098</v>
       </c>
       <c r="N39" t="n">
-        <v>419.0214237900133</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>308.3786299263035</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>416.9382561970556</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>319.4797412669951</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>295.7873563312717</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>41.3010765838641</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>75.27936821718457</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>439.7689773079101</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>178.9815476621525</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>103.2675685939205</v>
       </c>
       <c r="M44" t="n">
-        <v>416.9382561970555</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>408.1220033598706</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>114.8564757298449</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>41.3010765838641</v>
+        <v>41.30107658386407</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.7689773079101</v>
       </c>
       <c r="N45" t="n">
-        <v>228.1942526170756</v>
+        <v>419.0214237900133</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>153.8224431488682</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.6996689341966</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164005</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.3616362679793</v>
+        <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>204.9947118962168</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356467</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>23.9427685004094</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.3816879599484</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157774</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658524</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131305</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>40.14784602043855</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>332.9594913636451</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.94276850040936</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997376</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>161.6487518850149</v>
+        <v>171.5549581157774</v>
       </c>
       <c r="V14" t="n">
-        <v>248.1835246658524</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.1623668741865</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>13.42632660718989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>13.42632660718957</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>13.42632660718944</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.42632660718944</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170386</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170382</v>
+        <v>81927.63387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="E2" t="n">
         <v>67776.01227055128</v>
       </c>
       <c r="F2" t="n">
-        <v>73045.77841537177</v>
+        <v>73045.77841537178</v>
       </c>
       <c r="G2" t="n">
-        <v>81997.30342663507</v>
+        <v>81997.30342663509</v>
       </c>
       <c r="H2" t="n">
-        <v>81997.30342663513</v>
+        <v>81997.3034266351</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642825</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642827</v>
       </c>
-      <c r="O2" t="n">
-        <v>82104.17698642828</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>753993.2266122005</v>
       </c>
       <c r="F3" t="n">
-        <v>48878.85800921627</v>
+        <v>48878.85800921638</v>
       </c>
       <c r="G3" t="n">
-        <v>63654.98704342602</v>
+        <v>63654.987043426</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>920.0015970187816</v>
       </c>
       <c r="J3" t="n">
-        <v>75818.20182542151</v>
+        <v>75818.20182542157</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342602</v>
+        <v>63654.987043426</v>
       </c>
       <c r="M3" t="n">
-        <v>105300.8148108541</v>
+        <v>105300.814810854</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583626</v>
+        <v>41782.42831583637</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>136703.2860371436</v>
+        <v>136703.2860371435</v>
       </c>
       <c r="F4" t="n">
         <v>155828.6686718297</v>
       </c>
       <c r="G4" t="n">
-        <v>206726.2449558836</v>
+        <v>206726.2449558835</v>
       </c>
       <c r="H4" t="n">
         <v>206726.2449558835</v>
       </c>
       <c r="I4" t="n">
-        <v>207114.1175233571</v>
+        <v>207114.117523357</v>
       </c>
       <c r="J4" t="n">
         <v>194662.9295016922</v>
       </c>
       <c r="K4" t="n">
-        <v>194662.9295016922</v>
+        <v>194662.9295016921</v>
       </c>
       <c r="L4" t="n">
         <v>194662.9295016922</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>49400.51786652593</v>
+        <v>49400.51786652592</v>
       </c>
       <c r="F5" t="n">
-        <v>59772.47212882795</v>
+        <v>59772.47212882796</v>
       </c>
       <c r="G5" t="n">
-        <v>66461.73601102018</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="H5" t="n">
-        <v>66461.73601102018</v>
+        <v>66461.7360110202</v>
       </c>
       <c r="I5" t="n">
         <v>66672.08456227693</v>
       </c>
       <c r="J5" t="n">
-        <v>77601.21311784603</v>
+        <v>77601.21311784605</v>
       </c>
       <c r="K5" t="n">
         <v>77601.21311784605</v>
       </c>
       <c r="L5" t="n">
-        <v>77601.21311784604</v>
+        <v>77601.21311784605</v>
       </c>
       <c r="M5" t="n">
-        <v>68267.74432235742</v>
+        <v>68267.74432235741</v>
       </c>
       <c r="N5" t="n">
         <v>68267.74432235741</v>
       </c>
       <c r="O5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235744</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254125</v>
       </c>
       <c r="C6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254124</v>
       </c>
       <c r="D6" t="n">
-        <v>-387973.8458475443</v>
+        <v>-387978.2594254125</v>
       </c>
       <c r="E6" t="n">
-        <v>-872321.0182453187</v>
+        <v>-872679.2223632155</v>
       </c>
       <c r="F6" t="n">
-        <v>-191434.2203945022</v>
+        <v>-191660.6803587787</v>
       </c>
       <c r="G6" t="n">
-        <v>-254845.6645836947</v>
+        <v>-254848.3364226895</v>
       </c>
       <c r="H6" t="n">
-        <v>-191190.6775402686</v>
+        <v>-191193.3493792635</v>
       </c>
       <c r="I6" t="n">
         <v>-192602.0266962244</v>
@@ -26546,22 +26546,22 @@
         <v>-265978.1674585314</v>
       </c>
       <c r="K6" t="n">
-        <v>-190159.9656331099</v>
+        <v>-190159.9656331097</v>
       </c>
       <c r="L6" t="n">
-        <v>-253814.952676536</v>
+        <v>-253814.9526765359</v>
       </c>
       <c r="M6" t="n">
-        <v>-296199.2803113298</v>
+        <v>-296199.2803113295</v>
       </c>
       <c r="N6" t="n">
-        <v>-232680.8938163119</v>
+        <v>-232680.893816312</v>
       </c>
       <c r="O6" t="n">
-        <v>-190898.4655004755</v>
+        <v>-190898.4655004756</v>
       </c>
       <c r="P6" t="n">
-        <v>-190898.4655004757</v>
+        <v>-190898.4655004756</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F2" t="n">
         <v>79.56873380428253</v>
       </c>
       <c r="G2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="L2" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="M2" t="n">
         <v>145.7958694742563</v>
@@ -26722,7 +26722,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="O2" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="P2" t="n">
         <v>145.7958694742563</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="F3" t="n">
         <v>690.1599463678454</v>
       </c>
       <c r="G3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="H3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="I3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="J3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="K3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="L3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="M3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="N3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="O3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="P3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249125</v>
+        <v>455.0290650249122</v>
       </c>
       <c r="F4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="G4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="H4" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="I4" t="n">
-        <v>629.0800981426552</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="J4" t="n">
-        <v>918.8562895532035</v>
+        <v>918.8562895532039</v>
       </c>
       <c r="K4" t="n">
-        <v>918.8562895532039</v>
+        <v>918.8562895532041</v>
       </c>
       <c r="L4" t="n">
-        <v>918.8562895532039</v>
+        <v>918.8562895532041</v>
       </c>
       <c r="M4" t="n">
+        <v>673.7721141563674</v>
+      </c>
+      <c r="N4" t="n">
+        <v>673.7721141563673</v>
+      </c>
+      <c r="O4" t="n">
         <v>673.7721141563675</v>
       </c>
-      <c r="N4" t="n">
-        <v>673.7721141563674</v>
-      </c>
-      <c r="O4" t="n">
-        <v>673.7721141563674</v>
-      </c>
       <c r="P4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563675</v>
       </c>
     </row>
   </sheetData>
@@ -26914,14 +26914,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>79.56873380428253</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>79.5687338042825</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79.56873380428253</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.5687338042825</v>
       </c>
       <c r="M2" t="n">
-        <v>66.22713566997378</v>
+        <v>66.22713566997383</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.1599463678454</v>
+        <v>690.1599463678455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.0290650249125</v>
+        <v>455.0290650249122</v>
       </c>
       <c r="F4" t="n">
-        <v>170.5913529983885</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>3.459680119354175</v>
       </c>
       <c r="J4" t="n">
-        <v>289.7761914105483</v>
+        <v>289.7761914105486</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280762</v>
+        <v>209.9448896280755</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983883</v>
+        <v>170.5913529983888</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>79.56873380428253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.5687338042825</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.56873380428253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.0290650249125</v>
+        <v>455.0290650249122</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983885</v>
+        <v>170.5913529983889</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C12" t="n">
-        <v>79.5687338042825</v>
+        <v>39.5342119745994</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>79.5687338042825</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28573116285294</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.988926598084433</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W12" t="n">
-        <v>79.5687338042825</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.248480811745821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="C13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="D13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="E13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="F13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="G13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="I13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="J13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="K13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428146</v>
       </c>
       <c r="L13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="M13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="N13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="O13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="P13" t="n">
-        <v>79.56873380428354</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="R13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="S13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="T13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="U13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="V13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="W13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="X13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428253</v>
       </c>
     </row>
     <row r="14">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>79.56873380428253</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.04208629079649</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,13 +28457,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>22.04208629079685</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>79.56873380428253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I17" t="n">
         <v>103.5115023046919</v>
@@ -28615,22 +28615,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="18">
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.712472102941462</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.89834799213801</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>101.6108200950789</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.1374676085651</v>
+        <v>82.67959705863134</v>
       </c>
       <c r="C19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H19" t="n">
         <v>151.1619851705912</v>
@@ -28743,7 +28743,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J19" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.90509661098</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X19" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I20" t="n">
         <v>103.5115023046919</v>
@@ -28852,22 +28852,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>101.6108200950794</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>101.6108200950788</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1619851705912</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J22" t="n">
-        <v>5.369444003513223</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S22" t="n">
-        <v>105.9050966109797</v>
+        <v>159.137467608565</v>
       </c>
       <c r="T22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1374676085651</v>
+        <v>103.2990581765192</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="E23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="F23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="G23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="I23" t="n">
         <v>103.5115023046919</v>
@@ -29089,22 +29089,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="V23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>88.18449348788981</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.988926598084419</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>80.19556688980501</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>98.57103565249707</v>
       </c>
       <c r="H25" t="n">
         <v>151.1619851705912</v>
@@ -29244,25 +29244,25 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="T25" t="n">
-        <v>100.7525460241403</v>
+        <v>159.137467608565</v>
       </c>
       <c r="U25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="X25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1374676085651</v>
+        <v>159.137467608565</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428257</v>
+        <v>79.56873380428252</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428245</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="C32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="D32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="E32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="F32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="G32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="H32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="I32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="T32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="U32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="V32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="W32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="X32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="C34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="D34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="E34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="F34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="G34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="H34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="I34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="K34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428391</v>
       </c>
       <c r="L34" t="n">
-        <v>79.568733804283</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="M34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="N34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="O34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="P34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="R34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="S34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="T34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="U34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="V34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="W34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="X34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.5687338042825</v>
+        <v>79.56873380428245</v>
       </c>
     </row>
     <row r="35">
@@ -30156,16 +30156,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>21.21019933957785</v>
       </c>
       <c r="H37" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="I37" t="n">
-        <v>118.0234404586545</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W37" t="n">
-        <v>48.98262835517986</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X37" t="n">
         <v>145.7958694742563</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C40" t="n">
         <v>145.7958694742563</v>
@@ -30387,13 +30387,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="E40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.1458026635657</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385482</v>
       </c>
       <c r="H40" t="n">
         <v>145.7958694742563</v>
@@ -30402,7 +30402,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J40" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.3338652339668</v>
       </c>
       <c r="S40" t="n">
         <v>145.7958694742563</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="F41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="G41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I41" t="n">
         <v>103.5115023046919</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="V41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="W41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="D43" t="n">
-        <v>48.98262835518015</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="I43" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.3338652339668</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="U43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="V43" t="n">
-        <v>145.7958694742562</v>
+        <v>24.52062411489041</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742562</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.7958694742562</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
     <row r="44">
@@ -30867,16 +30867,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="I46" t="n">
-        <v>21.21019933957797</v>
+        <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513223</v>
+        <v>5.369444003513209</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,10 +30903,10 @@
         <v>121.3338652339668</v>
       </c>
       <c r="S46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835517929</v>
       </c>
       <c r="U46" t="n">
         <v>145.7958694742563</v>
@@ -30915,13 +30915,13 @@
         <v>145.7958694742563</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
         <v>145.7958694742563</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H11" t="n">
         <v>28.41447457583796</v>
@@ -31768,25 +31768,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M11" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N11" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O11" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P11" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R11" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S11" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T11" t="n">
         <v>12.14542779990047</v>
@@ -31835,22 +31835,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J12" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K12" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M12" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N12" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O12" t="n">
         <v>353.1991189680803</v>
@@ -31862,16 +31862,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R12" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S12" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T12" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H13" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I13" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J13" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K13" t="n">
         <v>144.5941658128043</v>
@@ -31932,16 +31932,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P13" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R13" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S13" t="n">
         <v>21.68912487192064</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H17" t="n">
         <v>28.41447457583796</v>
@@ -32242,25 +32242,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M17" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N17" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O17" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P17" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q17" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R17" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S17" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T17" t="n">
         <v>12.14542779990047</v>
@@ -32309,22 +32309,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J18" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L18" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M18" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N18" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O18" t="n">
         <v>353.1991189680803</v>
@@ -32336,16 +32336,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R18" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S18" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T18" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H19" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I19" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J19" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K19" t="n">
         <v>144.5941658128043</v>
@@ -32406,16 +32406,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O19" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P19" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R19" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S19" t="n">
         <v>21.68912487192064</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H20" t="n">
         <v>28.41447457583796</v>
@@ -32479,25 +32479,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M20" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N20" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O20" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P20" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q20" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R20" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S20" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T20" t="n">
         <v>12.14542779990047</v>
@@ -32546,22 +32546,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J21" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L21" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M21" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N21" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O21" t="n">
         <v>353.1991189680803</v>
@@ -32573,16 +32573,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R21" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S21" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T21" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H22" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I22" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J22" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K22" t="n">
         <v>144.5941658128043</v>
@@ -32643,16 +32643,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O22" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P22" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R22" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S22" t="n">
         <v>21.68912487192064</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H23" t="n">
         <v>28.41447457583796</v>
@@ -32716,25 +32716,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M23" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N23" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O23" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P23" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R23" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S23" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T23" t="n">
         <v>12.14542779990047</v>
@@ -32783,22 +32783,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J24" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K24" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L24" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M24" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N24" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O24" t="n">
         <v>353.1991189680803</v>
@@ -32810,16 +32810,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R24" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S24" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T24" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H25" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I25" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J25" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K25" t="n">
         <v>144.5941658128043</v>
@@ -32880,16 +32880,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O25" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P25" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q25" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R25" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S25" t="n">
         <v>21.68912487192064</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H26" t="n">
         <v>28.41447457583796</v>
@@ -32953,25 +32953,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M26" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N26" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O26" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P26" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q26" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R26" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S26" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T26" t="n">
         <v>12.14542779990047</v>
@@ -33020,22 +33020,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J27" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K27" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M27" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O27" t="n">
         <v>353.1991189680803</v>
@@ -33047,16 +33047,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R27" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S27" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T27" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H28" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I28" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J28" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K28" t="n">
         <v>144.5941658128043</v>
@@ -33117,16 +33117,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P28" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q28" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R28" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S28" t="n">
         <v>21.68912487192064</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H29" t="n">
         <v>28.41447457583796</v>
@@ -33190,25 +33190,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M29" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N29" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O29" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P29" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q29" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R29" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S29" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T29" t="n">
         <v>12.14542779990047</v>
@@ -33257,22 +33257,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J30" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M30" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N30" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O30" t="n">
         <v>353.1991189680803</v>
@@ -33284,16 +33284,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R30" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S30" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T30" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H31" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I31" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J31" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K31" t="n">
         <v>144.5941658128043</v>
@@ -33354,16 +33354,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P31" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R31" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S31" t="n">
         <v>21.68912487192064</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H32" t="n">
         <v>28.41447457583796</v>
@@ -33427,25 +33427,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M32" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N32" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O32" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P32" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R32" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S32" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T32" t="n">
         <v>12.14542779990047</v>
@@ -33494,22 +33494,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J33" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K33" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M33" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N33" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O33" t="n">
         <v>353.1991189680803</v>
@@ -33521,16 +33521,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R33" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S33" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T33" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H34" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I34" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J34" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K34" t="n">
         <v>144.5941658128043</v>
@@ -33591,16 +33591,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O34" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P34" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R34" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S34" t="n">
         <v>21.68912487192064</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H35" t="n">
         <v>28.41447457583796</v>
@@ -33664,25 +33664,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M35" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N35" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O35" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P35" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q35" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R35" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S35" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T35" t="n">
         <v>12.14542779990047</v>
@@ -33731,22 +33731,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J36" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K36" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M36" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N36" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O36" t="n">
         <v>353.1991189680803</v>
@@ -33758,16 +33758,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R36" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S36" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T36" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H37" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I37" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J37" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K37" t="n">
         <v>144.5941658128043</v>
@@ -33828,16 +33828,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O37" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P37" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R37" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S37" t="n">
         <v>21.68912487192064</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H38" t="n">
         <v>28.41447457583796</v>
@@ -33901,25 +33901,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M38" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N38" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O38" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P38" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q38" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R38" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S38" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T38" t="n">
         <v>12.14542779990047</v>
@@ -33968,22 +33968,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J39" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K39" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M39" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N39" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O39" t="n">
         <v>353.1991189680803</v>
@@ -33995,16 +33995,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R39" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S39" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T39" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H40" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I40" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J40" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K40" t="n">
         <v>144.5941658128043</v>
@@ -34065,16 +34065,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P40" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R40" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S40" t="n">
         <v>21.68912487192064</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H41" t="n">
         <v>28.41447457583796</v>
@@ -34138,25 +34138,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R41" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S41" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990047</v>
@@ -34205,22 +34205,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J42" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M42" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O42" t="n">
         <v>353.1991189680803</v>
@@ -34232,16 +34232,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R42" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H43" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K43" t="n">
         <v>144.5941658128043</v>
@@ -34302,16 +34302,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P43" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S43" t="n">
         <v>21.68912487192064</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.774512347207416</v>
+        <v>2.774512347207417</v>
       </c>
       <c r="H44" t="n">
         <v>28.41447457583796</v>
@@ -34375,25 +34375,25 @@
         <v>437.8388572319348</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865846</v>
+        <v>487.1800911865847</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930877</v>
+        <v>495.0631743930878</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405439</v>
+        <v>467.474117240544</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688608</v>
+        <v>398.9783436688609</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.6161202344951</v>
+        <v>299.6161202344952</v>
       </c>
       <c r="R44" t="n">
-        <v>174.284461230268</v>
+        <v>174.2844612302681</v>
       </c>
       <c r="S44" t="n">
-        <v>63.22420011198906</v>
+        <v>63.22420011198908</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990047</v>
@@ -34442,22 +34442,22 @@
         <v>14.33709624435845</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856214</v>
+        <v>51.11090168856215</v>
       </c>
       <c r="J45" t="n">
         <v>140.2522207991487</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908015</v>
+        <v>239.7133843908016</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824546</v>
+        <v>322.3242277824547</v>
       </c>
       <c r="M45" t="n">
         <v>376.1371707704757</v>
       </c>
       <c r="N45" t="n">
-        <v>386.0924024496874</v>
+        <v>386.0924024496875</v>
       </c>
       <c r="O45" t="n">
         <v>353.1991189680803</v>
@@ -34469,16 +34469,16 @@
         <v>189.4944818782054</v>
       </c>
       <c r="R45" t="n">
-        <v>92.1689075545587</v>
+        <v>92.16890755455871</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026248</v>
+        <v>27.57384314026249</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151411</v>
+        <v>5.983556516151413</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394043</v>
+        <v>0.09766414335394044</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.244550722958409</v>
+        <v>1.24455072295841</v>
       </c>
       <c r="H46" t="n">
         <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.42703446860381</v>
+        <v>37.42703446860382</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315955</v>
+        <v>87.98973611315957</v>
       </c>
       <c r="K46" t="n">
         <v>144.5941658128043</v>
@@ -34539,16 +34539,16 @@
         <v>190.4502029050811</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414305</v>
+        <v>175.9115876414306</v>
       </c>
       <c r="P46" t="n">
         <v>150.5227528930789</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.2141519015446</v>
+        <v>104.2141519015447</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320265</v>
+        <v>55.95952614320267</v>
       </c>
       <c r="S46" t="n">
         <v>21.68912487192064</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K11" t="n">
-        <v>181.8302200585215</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0724422619475</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8338579593119</v>
+        <v>455.0290650249122</v>
       </c>
       <c r="N11" t="n">
-        <v>455.0290650249125</v>
+        <v>265.6501107964969</v>
       </c>
       <c r="O11" t="n">
-        <v>237.3759058188572</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P11" t="n">
-        <v>167.7453479135913</v>
+        <v>352.6020630767771</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.31043036004561</v>
+        <v>77.31043036004567</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.41459413248197</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K12" t="n">
-        <v>101.8719454164425</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L12" t="n">
-        <v>183.7698480025804</v>
+        <v>183.7698480025805</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0290650249125</v>
+        <v>234.0031368484574</v>
       </c>
       <c r="N12" t="n">
-        <v>254.7506903663541</v>
+        <v>427.4360402902661</v>
       </c>
       <c r="O12" t="n">
-        <v>383.8060847586392</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4990241419269</v>
+        <v>455.0290650249122</v>
       </c>
       <c r="Q12" t="n">
-        <v>259.589995528033</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076932</v>
       </c>
       <c r="K13" t="n">
-        <v>201.8934077912039</v>
+        <v>201.8934077912029</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1895092760698</v>
+        <v>292.1895092760699</v>
       </c>
       <c r="M13" t="n">
         <v>314.2415936385945</v>
@@ -35580,13 +35580,13 @@
         <v>314.1511090885922</v>
       </c>
       <c r="O13" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597528</v>
       </c>
       <c r="P13" t="n">
-        <v>227.3700459622559</v>
+        <v>227.3700459622549</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.62084245413276</v>
+        <v>97.62084245413281</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K14" t="n">
         <v>132.8385239411051</v>
       </c>
       <c r="L14" t="n">
-        <v>619.733656812398</v>
+        <v>202.0724422619475</v>
       </c>
       <c r="M14" t="n">
-        <v>625.620418023301</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N14" t="n">
         <v>265.6501107964968</v>
       </c>
       <c r="O14" t="n">
-        <v>237.3759058188572</v>
+        <v>617.1056894077294</v>
       </c>
       <c r="P14" t="n">
-        <v>464.237670891485</v>
+        <v>489.5440560850739</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199503</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>366.3371824290211</v>
       </c>
       <c r="L15" t="n">
-        <v>360.667745954661</v>
+        <v>554.6101933060396</v>
       </c>
       <c r="M15" t="n">
         <v>234.0031368484574</v>
@@ -35741,7 +35741,7 @@
         <v>604.4651938003653</v>
       </c>
       <c r="P15" t="n">
-        <v>467.9617927818641</v>
+        <v>274.0193454304862</v>
       </c>
       <c r="Q15" t="n">
         <v>49.5127077921839</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K17" t="n">
-        <v>132.8385239411051</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L17" t="n">
-        <v>434.1469092839199</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8338579593119</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="N17" t="n">
-        <v>625.620418023301</v>
+        <v>265.6501107964969</v>
       </c>
       <c r="O17" t="n">
-        <v>237.3759058188572</v>
+        <v>417.4157445158138</v>
       </c>
       <c r="P17" t="n">
-        <v>489.5440560850739</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>108.5712777910087</v>
+        <v>139.5056294728908</v>
       </c>
       <c r="K18" t="n">
-        <v>366.3371824290211</v>
+        <v>366.3371824290212</v>
       </c>
       <c r="L18" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M18" t="n">
-        <v>625.620418023301</v>
+        <v>542.3084896778968</v>
       </c>
       <c r="N18" t="n">
-        <v>254.7506903663541</v>
+        <v>254.7506903663542</v>
       </c>
       <c r="O18" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P18" t="n">
-        <v>467.9617927818641</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q18" t="n">
         <v>259.589995528033</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L19" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M19" t="n">
         <v>234.672859834312</v>
@@ -36057,10 +36057,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P19" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.43736280210939</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8768895467987</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L20" t="n">
-        <v>202.0724422619475</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M20" t="n">
-        <v>625.620418023301</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N20" t="n">
-        <v>265.6501107964968</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O20" t="n">
-        <v>618.1760870816025</v>
+        <v>401.8166540638804</v>
       </c>
       <c r="P20" t="n">
-        <v>167.7453479135913</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K21" t="n">
-        <v>101.8719454164425</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L21" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M21" t="n">
-        <v>625.620418023301</v>
+        <v>561.9950343739373</v>
       </c>
       <c r="N21" t="n">
-        <v>625.620418023301</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O21" t="n">
-        <v>230.9637432697115</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P21" t="n">
         <v>149.4990241419269</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.5127077921839</v>
+        <v>259.589995528033</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L22" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M22" t="n">
         <v>234.672859834312</v>
@@ -36294,10 +36294,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P22" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K23" t="n">
-        <v>456.9839365122698</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L23" t="n">
-        <v>619.733656812398</v>
+        <v>589.0674364696106</v>
       </c>
       <c r="M23" t="n">
         <v>256.8338579593119</v>
       </c>
       <c r="N23" t="n">
-        <v>451.3859015172302</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="O23" t="n">
-        <v>237.3759058188572</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P23" t="n">
-        <v>167.7453479135913</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.31043036004561</v>
+        <v>77.31043036004567</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.41459413248197</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K24" t="n">
-        <v>331.7176173405696</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L24" t="n">
-        <v>554.6101933060396</v>
+        <v>313.9793532991758</v>
       </c>
       <c r="M24" t="n">
-        <v>234.0031368484574</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="N24" t="n">
-        <v>629.0800981426552</v>
+        <v>629.0800981426553</v>
       </c>
       <c r="O24" t="n">
-        <v>210.6028745236358</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P24" t="n">
-        <v>467.9617927818641</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.5127077921839</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L25" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M25" t="n">
         <v>234.672859834312</v>
@@ -36531,10 +36531,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P25" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>223.5339779741832</v>
       </c>
       <c r="K26" t="n">
-        <v>456.9839365122698</v>
+        <v>381.5878971916993</v>
       </c>
       <c r="L26" t="n">
-        <v>619.733656812398</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M26" t="n">
         <v>706.3473914521444</v>
       </c>
       <c r="N26" t="n">
-        <v>702.997035208481</v>
+        <v>702.9970352084811</v>
       </c>
       <c r="O26" t="n">
-        <v>237.3759058188572</v>
+        <v>618.1760870816026</v>
       </c>
       <c r="P26" t="n">
-        <v>489.5440560850739</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7836917007925</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K27" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L27" t="n">
-        <v>487.2471031204425</v>
+        <v>228.3132801825488</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484574</v>
+        <v>699.7082005984573</v>
       </c>
       <c r="N27" t="n">
-        <v>734.0930647099076</v>
+        <v>734.0930647099077</v>
       </c>
       <c r="O27" t="n">
-        <v>210.6028745236358</v>
+        <v>604.4651938003653</v>
       </c>
       <c r="P27" t="n">
         <v>149.4990241419269</v>
       </c>
       <c r="Q27" t="n">
-        <v>259.589995528033</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076935</v>
+        <v>74.19928980076931</v>
       </c>
       <c r="K28" t="n">
         <v>201.893407791204</v>
@@ -36762,16 +36762,16 @@
         <v>314.2415936385945</v>
       </c>
       <c r="N28" t="n">
-        <v>314.1511090885923</v>
+        <v>314.1511090885922</v>
       </c>
       <c r="O28" t="n">
-        <v>280.0654493597528</v>
+        <v>280.0654493597527</v>
       </c>
       <c r="P28" t="n">
         <v>227.3700459622549</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413283</v>
+        <v>97.6208424541328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.5339779741832</v>
+        <v>111.2769053659083</v>
       </c>
       <c r="K29" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122699</v>
       </c>
       <c r="L29" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123981</v>
       </c>
       <c r="M29" t="n">
-        <v>450.0204715301473</v>
+        <v>706.3473914521444</v>
       </c>
       <c r="N29" t="n">
-        <v>702.997035208481</v>
+        <v>702.9970352084811</v>
       </c>
       <c r="O29" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850739</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>139.5056294728908</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8719454164425</v>
+        <v>366.3371824290212</v>
       </c>
       <c r="L30" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M30" t="n">
-        <v>408.0833097021684</v>
+        <v>376.7173343987087</v>
       </c>
       <c r="N30" t="n">
-        <v>734.0930647099076</v>
+        <v>734.0930647099077</v>
       </c>
       <c r="O30" t="n">
-        <v>604.4651938003653</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P30" t="n">
         <v>149.4990241419269</v>
       </c>
       <c r="Q30" t="n">
-        <v>259.589995528033</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076929</v>
+        <v>74.19928980076924</v>
       </c>
       <c r="K31" t="n">
         <v>201.8934077912039</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1895092760699</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
         <v>314.2415936385945</v>
@@ -37005,10 +37005,10 @@
         <v>280.0654493597527</v>
       </c>
       <c r="P31" t="n">
-        <v>227.3700459622549</v>
+        <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413277</v>
+        <v>97.62084245413273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.5339779741832</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K32" t="n">
-        <v>176.2416733011544</v>
+        <v>369.7536317623466</v>
       </c>
       <c r="L32" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123981</v>
       </c>
       <c r="M32" t="n">
         <v>706.3473914521444</v>
       </c>
       <c r="N32" t="n">
-        <v>702.997035208481</v>
+        <v>702.9970352084811</v>
       </c>
       <c r="O32" t="n">
-        <v>618.1760870816025</v>
+        <v>618.1760870816026</v>
       </c>
       <c r="P32" t="n">
-        <v>489.5440560850739</v>
+        <v>489.544056085074</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.31043036004561</v>
+        <v>77.31043036004567</v>
       </c>
       <c r="R32" t="n">
-        <v>24.41534328911834</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.41459413248197</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K33" t="n">
-        <v>366.3371824290211</v>
+        <v>366.3371824290212</v>
       </c>
       <c r="L33" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484574</v>
+        <v>502.8083697391175</v>
       </c>
       <c r="N33" t="n">
-        <v>734.0930647099076</v>
+        <v>734.0930647099077</v>
       </c>
       <c r="O33" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P33" t="n">
-        <v>208.2269692967386</v>
+        <v>149.4990241419269</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.589995528033</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076928</v>
+        <v>74.19928980076924</v>
       </c>
       <c r="K34" t="n">
-        <v>201.8934077912039</v>
+        <v>201.8934077912054</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1895092760703</v>
+        <v>292.1895092760698</v>
       </c>
       <c r="M34" t="n">
         <v>314.2415936385945</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413276</v>
+        <v>97.62084245413273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411051</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L35" t="n">
-        <v>619.733656812398</v>
+        <v>619.7336568123981</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="N35" t="n">
-        <v>673.7721141563675</v>
+        <v>511.1400406363134</v>
       </c>
       <c r="O35" t="n">
-        <v>237.3759058188572</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P35" t="n">
-        <v>198.6252328547302</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q35" t="n">
-        <v>77.31043036004561</v>
+        <v>77.31043036004567</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8719454164425</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7698480025804</v>
+        <v>183.7698480025805</v>
       </c>
       <c r="M36" t="n">
-        <v>360.0187793516203</v>
+        <v>486.1098146920286</v>
       </c>
       <c r="N36" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563674</v>
       </c>
       <c r="O36" t="n">
         <v>604.4651938003653</v>
@@ -37403,7 +37403,7 @@
         <v>467.9617927818641</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.5127077921839</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L37" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M37" t="n">
         <v>234.672859834312</v>
@@ -37479,10 +37479,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P37" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K38" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122699</v>
       </c>
       <c r="L38" t="n">
-        <v>202.0724422619475</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593119</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N38" t="n">
-        <v>300.1921771797142</v>
+        <v>392.3408519556943</v>
       </c>
       <c r="O38" t="n">
-        <v>618.1760870816025</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P38" t="n">
-        <v>489.5440560850739</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.41459413248197</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K39" t="n">
-        <v>255.6943885653119</v>
+        <v>366.3371824290212</v>
       </c>
       <c r="L39" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M39" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563673</v>
       </c>
       <c r="N39" t="n">
-        <v>673.7721141563674</v>
+        <v>254.7506903663542</v>
       </c>
       <c r="O39" t="n">
-        <v>210.6028745236358</v>
+        <v>210.6028745236359</v>
       </c>
       <c r="P39" t="n">
-        <v>149.4990241419269</v>
+        <v>457.8776540682304</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.5127077921839</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L40" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M40" t="n">
         <v>234.672859834312</v>
@@ -37716,10 +37716,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P40" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210939</v>
+        <v>54.43736280210942</v>
       </c>
       <c r="K41" t="n">
-        <v>456.9839365122698</v>
+        <v>456.9839365122699</v>
       </c>
       <c r="L41" t="n">
-        <v>619.733656812398</v>
+        <v>202.0724422619476</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593119</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="N41" t="n">
-        <v>265.6501107964968</v>
+        <v>265.6501107964969</v>
       </c>
       <c r="O41" t="n">
-        <v>556.8556470858523</v>
+        <v>237.3759058188573</v>
       </c>
       <c r="P41" t="n">
-        <v>167.7453479135913</v>
+        <v>463.5327042448631</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.6254210199503</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.41534328911837</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.69396234966653</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K42" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L42" t="n">
-        <v>183.7698480025804</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M42" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="N42" t="n">
-        <v>254.7506903663541</v>
+        <v>254.7506903663542</v>
       </c>
       <c r="O42" t="n">
         <v>604.4651938003653</v>
@@ -37877,7 +37877,7 @@
         <v>149.4990241419269</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.589995528033</v>
+        <v>228.4942554543364</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L43" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M43" t="n">
         <v>234.672859834312</v>
@@ -37953,10 +37953,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P43" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.43736280210939</v>
+        <v>223.5339779741832</v>
       </c>
       <c r="K44" t="n">
-        <v>456.9839365122698</v>
+        <v>132.8385239411052</v>
       </c>
       <c r="L44" t="n">
-        <v>619.733656812398</v>
+        <v>305.3400108558681</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7721141563674</v>
+        <v>256.8338579593119</v>
       </c>
       <c r="N44" t="n">
-        <v>265.6501107964968</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="O44" t="n">
-        <v>237.3759058188572</v>
+        <v>618.1760870816026</v>
       </c>
       <c r="P44" t="n">
-        <v>282.6018236434362</v>
+        <v>167.7453479135913</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.31043036004561</v>
+        <v>289.6254210199504</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5056294728908</v>
+        <v>13.41459413248199</v>
       </c>
       <c r="K45" t="n">
-        <v>366.3371824290211</v>
+        <v>101.8719454164426</v>
       </c>
       <c r="L45" t="n">
-        <v>554.6101933060396</v>
+        <v>554.6101933060397</v>
       </c>
       <c r="M45" t="n">
-        <v>234.0031368484574</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="N45" t="n">
-        <v>482.9449429834297</v>
+        <v>673.7721141563675</v>
       </c>
       <c r="O45" t="n">
-        <v>604.4651938003653</v>
+        <v>364.425317672504</v>
       </c>
       <c r="P45" t="n">
         <v>149.4990241419269</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.5127077921839</v>
+        <v>49.51270779218393</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.3246739869214</v>
+        <v>122.3246739869215</v>
       </c>
       <c r="L46" t="n">
-        <v>212.6207754717873</v>
+        <v>212.6207754717874</v>
       </c>
       <c r="M46" t="n">
         <v>234.672859834312</v>
@@ -38190,10 +38190,10 @@
         <v>200.4967155554702</v>
       </c>
       <c r="P46" t="n">
-        <v>147.8013121579723</v>
+        <v>147.8013121579724</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985025</v>
+        <v>18.05210864985028</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
